--- a/legendre_out/CSV/analytically/a1/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a2/a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,12 +374,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
         </is>
       </c>
     </row>
@@ -388,13 +408,25 @@
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>3.791395521765076e-05</v>
+        <v>3.862794896260183e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.219407526928633e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>2.415212562646067e-05</v>
+        <v>8.583246716357236e-07</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.550531843105844e-06</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41.20782318284469</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8.518067495799642e-08</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.241564636568938</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +434,25 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>3.498690391258914e-05</v>
+        <v>3.543942943365007e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.204232800491838e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>2.394292761542831e-05</v>
+        <v>8.704855853144537e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.57426380836265e-06</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.58590502098205</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.250431730554396e-07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.317181004196409</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +460,25 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>3.342816552162925e-05</v>
+        <v>3.384739191672346e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.769093663302718e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>1.863908969774502e-05</v>
+        <v>8.643884783552228e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.530466322093964e-06</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.18744325482974</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.130453130511079e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.837488650965947</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +486,25 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>3.183440712432439e-05</v>
+        <v>3.2388485318525e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.972943760583588e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>2.131158351191691e-05</v>
+        <v>8.580131518494943e-07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.523647074018321e-06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>38.57467498292989</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.892055654957204e-07</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.714934996585979</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +512,25 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>3.091315598199789e-05</v>
+        <v>3.129827130016559e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.895328258922297e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>2.033645014046966e-05</v>
+        <v>8.290847259995124e-07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.487749439898036e-06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.65216446071948</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.792392305828173e-06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.730432892143897</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +538,25 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>3.077757849216173e-05</v>
+        <v>3.106291296248628e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.847361480209438e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>1.940321972139778e-05</v>
+        <v>9.015742350445878e-07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.583879696341174e-06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26.57074454014334</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.913817349785134e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.314148908028668</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +564,25 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>3.031369595294594e-05</v>
+        <v>3.057875648786204e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.943955078709797e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>2.069319638433065e-05</v>
+        <v>8.937265280055256e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.591617336938513e-06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.7928969884773</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.000369767185382619</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.558579397695461</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +590,25 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>2.964352665068004e-05</v>
+        <v>2.987135820316763e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.68349839745833e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.749512983471911e-05</v>
+        <v>8.094013402038746e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.439385464062894e-06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.01067412230656</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003359836484079226</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.602134824461312</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +616,25 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>2.599137432369913e-05</v>
+        <v>2.609813285275269e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.630542740442888e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.710665538605852e-05</v>
+        <v>7.083985831693582e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.287993463554477e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14.94252567726641</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0106107604922776</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.988505135453282</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +642,25 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>2.259953960221518e-05</v>
+        <v>2.26208054432669e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.147383906667333e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>1.186822024623638e-05</v>
+        <v>7.09267755902937e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.226532687802434e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15.63672421413517</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.007961532618218192</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.127344842827033</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +668,25 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>1.535114312737419e-05</v>
+        <v>1.532948711933782e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8.303852929282532e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>8.542880479153797e-06</v>
+        <v>5.839803364019701e-07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.015580595427145e-06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.465040710021455</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1324004539236807</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.693008142004291</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +694,25 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>9.505117898438777e-06</v>
+        <v>9.39952208815263e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.309549626527794e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>6.282768879675608e-06</v>
+        <v>4.18748067170875e-07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.423113778315715e-07</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.896498764375158</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.1620327881400894</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.579299752875032</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +720,25 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>6.420634225252014e-06</v>
+        <v>6.567049364942711e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.627122613186301e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>5.004931475350052e-06</v>
+        <v>3.307564940128441e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5.734219306034356e-07</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.42821737819951</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.001038339662373211</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.085643475639903</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +746,25 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>2.622654979503337e-05</v>
+        <v>2.858493326095203e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.47955689088056e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>5.781502871639291e-06</v>
+        <v>7.560629281777014e-07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.155551695436818e-06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>127.6620596868343</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25.53241193736686</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +772,25 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>4.509638601662846e-05</v>
+        <v>4.740952754916901e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.872835167296175e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>2.083764689720318e-05</v>
+        <v>1.117274431500855e-06</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.871045112368229e-06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75.66346362733886</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6.772360450213455e-15</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15.13269272546777</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +798,25 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>6.319753723788733e-05</v>
+        <v>6.587835096150161e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2.684840553792311e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>2.939394904287245e-05</v>
+        <v>1.534617049626652e-06</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.596668555025243e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>64.5293934298326</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.403099858521273e-12</v>
+      </c>
+      <c r="H17" t="n">
+        <v>12.90587868596652</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +824,25 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>5.933990796128056e-05</v>
+        <v>6.195972545807718e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2.377272372724745e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>2.64322585988663e-05</v>
+        <v>1.465571354610321e-06</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2.458164873902412e-06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>64.12054181780593</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.705635632731628e-12</v>
+      </c>
+      <c r="H18" t="n">
+        <v>12.82410836356119</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +850,25 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>5.725620731395755e-05</v>
+        <v>6.071772833571514e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>2.604640831552392e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>2.868287195487009e-05</v>
+        <v>1.4869657601195e-06</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.4733682176638e-06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.06245434652784</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17.21249086930557</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +876,25 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>5.73943864805493e-05</v>
+        <v>6.05596078064279e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.394529307632492e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>2.593769984890236e-05</v>
+        <v>1.529619444765823e-06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2.511374174094414e-06</v>
+      </c>
+      <c r="F20" t="n">
+        <v>81.64973883373048</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.33066907387547e-16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>16.32994776674609</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +902,25 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>5.686915349581946e-05</v>
+        <v>6.044579576237254e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.462254601330089e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>2.679717999113678e-05</v>
+        <v>1.57391161156433e-06</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.583250510980099e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>90.70170065387208</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>18.14034013077442</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +928,25 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>5.819286555684325e-05</v>
+        <v>6.296379743790396e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.25264359306759e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>2.342347532067755e-05</v>
+        <v>1.778376576776441e-06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.79779438887126e-06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>117.4421752310857</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>23.48843504621713</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +954,25 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>5.716427621430891e-05</v>
+        <v>6.930908064287252e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>2.814403554585085e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>2.853111949364643e-05</v>
+        <v>2.596469714329241e-06</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.889666320082325e-06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>219.4400939946896</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>43.88801879893792</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +980,25 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>6.549482833659295e-05</v>
+        <v>8.013345223254567e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9.11912832916782e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>4.19806231407091e-06</v>
+        <v>3.474830161294269e-06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.802791029705769e-06</v>
+      </c>
+      <c r="F24" t="n">
+        <v>252.2294214113872</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50.44588428227745</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +1006,25 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>5.012870202620822e-05</v>
+        <v>7.63786982750236e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>2.89612965375563e-05</v>
       </c>
       <c r="D25" t="n">
-        <v>2.996041502059456e-05</v>
+        <v>3.859920508652023e-06</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.457397441966207e-06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>323.7124160809826</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>64.74248321619652</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +1032,25 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>5.712593611340499e-05</v>
+        <v>8.262706455616896e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.226001905561332e-05</v>
       </c>
       <c r="D26" t="n">
-        <v>1.290298615690856e-05</v>
+        <v>3.866466538160129e-06</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.225223784760151e-06</v>
+      </c>
+      <c r="F26" t="n">
+        <v>363.4060041027957</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>72.68120082055914</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +1058,25 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>4.797541588858614e-05</v>
+        <v>7.457433347819117e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1.909421959010964e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>2.31695605050209e-05</v>
+        <v>3.807500307339239e-06</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5.254345010384923e-06</v>
+      </c>
+      <c r="F27" t="n">
+        <v>340.943712443535</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>68.18874248870701</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +1084,25 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>5.844481009357113e-05</v>
+        <v>8.213063453523585e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.102073159880247e-05</v>
       </c>
       <c r="D28" t="n">
-        <v>1.09636088254841e-05</v>
+        <v>4.25976422762722e-06</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.827350116896511e-06</v>
+      </c>
+      <c r="F28" t="n">
+        <v>297.9318274213178</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>59.58636548426356</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +1110,25 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>6.997606294512369e-05</v>
+        <v>8.665949372955711e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-9.076276701549971e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.397197915496317e-05</v>
+        <v>4.343896459256461e-06</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.674663629128226e-06</v>
+      </c>
+      <c r="F29" t="n">
+        <v>280.7157041421111</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>56.14314082842221</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +1136,25 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>5.710256670218797e-05</v>
+        <v>7.823528969989261e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>5.663994657502782e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>4.928292545385814e-06</v>
+        <v>3.806911328906645e-06</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5.05090322113502e-06</v>
+      </c>
+      <c r="F30" t="n">
+        <v>329.1072129264182</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>65.82144258528363</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +1162,25 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>6.572767909161365e-05</v>
+        <v>8.193441746303314e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-7.694189354086377e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.142568570445798e-05</v>
+        <v>4.064300080172389e-06</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.213859318445629e-06</v>
+      </c>
+      <c r="F31" t="n">
+        <v>308.1212446798893</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>61.62424893597786</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +1188,25 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>3.782914363846692e-05</v>
+        <v>6.18789508496611e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3.937950803669819e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>9.123890651032713e-07</v>
+        <v>3.5828768621528e-06</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.536862007090817e-06</v>
+      </c>
+      <c r="F32" t="n">
+        <v>366.3509833566737</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>73.27019667133474</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +1214,25 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>4.301575475213912e-05</v>
+        <v>6.246238031070475e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-2.226061295976326e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>-2.220285244586774e-06</v>
+        <v>3.65324684487018e-06</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.701436650874943e-06</v>
+      </c>
+      <c r="F33" t="n">
+        <v>316.9872449138724</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>63.39744898277448</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +1240,25 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>2.574577966491731e-05</v>
+        <v>4.866008551411322e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>5.292820300390774e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>9.559759115004175e-06</v>
+        <v>3.026574227801504e-06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.982794788856304e-06</v>
+      </c>
+      <c r="F34" t="n">
+        <v>380.9440110946807</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>76.18880221893615</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +1266,25 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>3.687267215989343e-05</v>
+        <v>5.40549390872624e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-7.974073618303431e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.068001234939686e-07</v>
+        <v>3.330181709540219e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.453200632704407e-06</v>
+      </c>
+      <c r="F35" t="n">
+        <v>294.7097351618289</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>58.94194703236577</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +1292,25 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>4.315037705129881e-05</v>
+        <v>5.978213853133864e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-8.12941592820206e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.326230870398711e-06</v>
+        <v>3.426474402083773e-06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.328468650042384e-06</v>
+      </c>
+      <c r="F36" t="n">
+        <v>301.3854270017354</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>60.27708540034708</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +1318,25 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>3.173811667947576e-05</v>
+        <v>4.73513967400024e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-2.11972335881644e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.331798376172908e-07</v>
+        <v>2.770575102840273e-06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.573422849392927e-06</v>
+      </c>
+      <c r="F37" t="n">
+        <v>315.7279124354858</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>63.14558248709717</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +1344,25 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>3.186626991400819e-05</v>
+        <v>4.529772856188611e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-2.392553184163204e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.06724446874284e-06</v>
+        <v>2.486991043300722e-06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.150245115674424e-06</v>
+      </c>
+      <c r="F38" t="n">
+        <v>321.4856195884705</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>64.29712391769409</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +1370,25 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>3.517940563356561e-05</v>
+        <v>4.496249508998665e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6.223616563689167e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>5.189842590531337e-06</v>
+        <v>2.095548755328239e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.880531804307222e-06</v>
+      </c>
+      <c r="F39" t="n">
+        <v>262.109364995291</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>52.4218729990582</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +1396,25 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>3.145734852739739e-05</v>
+        <v>3.888814748221574e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>6.370053622417164e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>5.037275033405872e-06</v>
+        <v>1.683712833004028e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2.316434403620463e-06</v>
+      </c>
+      <c r="F40" t="n">
+        <v>238.7746070560181</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>47.75492141120363</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +1422,25 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>2.548985275757058e-05</v>
+        <v>3.649749677715704e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.902521094653086e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>3.569394064420814e-06</v>
+        <v>1.911624093182027e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2.618493140628283e-06</v>
+      </c>
+      <c r="F41" t="n">
+        <v>314.0909530979762</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>62.81819061959525</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +1448,25 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>3.319522618625339e-05</v>
+        <v>3.767300090799271e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5.714149041678318e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>5.155119009622274e-06</v>
+        <v>1.438941675813161e-06</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.065424704176454e-06</v>
+      </c>
+      <c r="F42" t="n">
+        <v>134.5341331900298</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>26.90682663800597</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +1474,25 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>4.249931987599983e-05</v>
+        <v>4.492466495233919e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.270119799363004e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>1.281244652004844e-05</v>
+        <v>1.363853665720852e-06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2.126680804534159e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>84.24055450188941</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="H43" t="n">
+        <v>16.84811090037788</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +1500,25 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>4.130148845352563e-05</v>
+        <v>4.363838118628917e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.496957940046602e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>1.597340479465057e-05</v>
+        <v>1.221335168936427e-06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.958158190548097e-06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>78.28963356079133</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.887379141862766e-15</v>
+      </c>
+      <c r="H44" t="n">
+        <v>15.65792671215827</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +1526,25 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>3.952399695944119e-05</v>
+        <v>4.077145426975647e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.34692429098982e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>1.453325850572184e-05</v>
+        <v>1.10618904155408e-06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.816938812131264e-06</v>
+      </c>
+      <c r="F45" t="n">
+        <v>53.86330368593125</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.235873708400504e-10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10.77266073718625</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1552,25 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>3.749186049961702e-05</v>
+        <v>3.863716317973347e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.021497016904964e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>1.067432412814322e-05</v>
+        <v>1.056400430779312e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.703430514801601e-06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>41.73111225737905</v>
+      </c>
+      <c r="G46" t="n">
+        <v>6.67643125229489e-08</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8.346222451475809</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1578,25 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>3.656106125873692e-05</v>
+        <v>3.77722246525429e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9.308320159285727e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>9.811909150381045e-06</v>
+        <v>9.961948725245534e-07</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.614547868913857e-06</v>
+      </c>
+      <c r="F47" t="n">
+        <v>44.41590172604949</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.906894619985167e-08</v>
+      </c>
+      <c r="H47" t="n">
+        <v>8.883180345209897</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1604,25 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.163364696347137e-05</v>
+        <v>3.243639464782626e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>5.445632766262005e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>5.999702217163176e-06</v>
+        <v>9.126040319655128e-07</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.446132742992284e-06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>38.04363484063779</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.697843532490808e-07</v>
+      </c>
+      <c r="H48" t="n">
+        <v>7.608726968127558</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1630,25 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.15993798170297e-05</v>
+        <v>3.23300640506798e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6.517639768328926e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>7.039801045887363e-06</v>
+        <v>9.352797277574582e-07</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.503167691742206e-06</v>
+      </c>
+      <c r="F49" t="n">
+        <v>35.78504042868255</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.048635339451209e-06</v>
+      </c>
+      <c r="H49" t="n">
+        <v>7.15700808573651</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1656,25 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>3.453280092373153e-05</v>
+        <v>3.536612864214496e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>4.264650676534275e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>4.454376500960769e-06</v>
+        <v>1.03999582410436e-06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.640287542728206e-06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>46.76594563191647</v>
+      </c>
+      <c r="G50" t="n">
+        <v>6.341150493582859e-09</v>
+      </c>
+      <c r="H50" t="n">
+        <v>9.353189126383295</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1682,25 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>3.679598267683469e-05</v>
+        <v>3.710132600676122e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>7.217656730047502e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>7.282865216196621e-06</v>
+        <v>1.171893550696453e-06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.869315473646879e-06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>21.04587154471368</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0007940527418888177</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4.209174308942737</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1708,25 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>3.565092467702221e-05</v>
+        <v>3.637740346613582e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>7.645831396380261e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>7.854920911875262e-06</v>
+        <v>1.139803405552759e-06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>1.803211698664882e-06</v>
+      </c>
+      <c r="F52" t="n">
+        <v>32.42014457421985</v>
+      </c>
+      <c r="G52" t="n">
+        <v>4.904928586513257e-06</v>
+      </c>
+      <c r="H52" t="n">
+        <v>6.48402891484397</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1734,25 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>3.024519197195096e-05</v>
+        <v>3.076726606771063e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>8.725397032577803e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>8.184116379226134e-06</v>
+        <v>1.643252520519056e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2.520335682506467e-06</v>
+      </c>
+      <c r="F53" t="n">
+        <v>26.83214589420717</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.149991117454512e-05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.366429178841433</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1760,25 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>2.641737182909076e-05</v>
+        <v>2.876360296096621e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1.416983533122098e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>1.614668245579893e-05</v>
+        <v>1.634331199998214e-06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.573934153024673e-06</v>
+      </c>
+      <c r="F54" t="n">
+        <v>35.91374328183898</v>
+      </c>
+      <c r="G54" t="n">
+        <v>9.883008404987237e-07</v>
+      </c>
+      <c r="H54" t="n">
+        <v>7.182748656367797</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1786,25 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>1.990552542845558e-05</v>
+        <v>1.91675082049609e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>6.360007113977518e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>5.333883021175203e-06</v>
+        <v>2.862883718367501e-06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.40695385991012e-06</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.912846472239286</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.7134203189888555</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.5825692944478572</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1812,25 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>2.155118976755945e-05</v>
+        <v>2.070262003975286e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1.797303499252277e-07</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.798492259435245e-06</v>
+        <v>3.877595888001449e-06</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5.937205290476245e-06</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.627490786580966</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.8979050633071852</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.3254981573161933</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1838,25 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>2.035569010670702e-05</v>
+        <v>2.038456903540602e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>9.720154394051707e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>1.121327973508479e-05</v>
+        <v>2.940221344429934e-06</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.602136786459567e-06</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6.601475011249982</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.2520055082990733</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.320295002249996</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1864,25 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>2.674461038156531e-05</v>
+        <v>2.666448830082287e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4.693301001789812e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>1.656574087015689e-06</v>
+        <v>3.43137332943981e-06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>5.002104405715525e-06</v>
+      </c>
+      <c r="F58" t="n">
+        <v>11.74047730028021</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03852218118515849</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.348095460056042</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1890,25 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>3.549779386643979e-05</v>
+        <v>3.539481915107103e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1.702914271087796e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>1.617109312932872e-05</v>
+        <v>2.245425918125853e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.569208328384528e-06</v>
+      </c>
+      <c r="F59" t="n">
+        <v>17.44075427714972</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.003735480410527181</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3.488150855429944</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1916,25 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>3.706158987052293e-05</v>
+        <v>3.88199794814108e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1.588839704045061e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>1.638315782995289e-05</v>
+        <v>2.050116967375446e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.202074444275001e-06</v>
+      </c>
+      <c r="F60" t="n">
+        <v>34.7250341931794</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.707227686220669e-06</v>
+      </c>
+      <c r="H60" t="n">
+        <v>6.945006838635879</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1942,25 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>3.605031036763804e-05</v>
+        <v>3.768241297581983e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>2.147564053956331e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>2.231251177755168e-05</v>
+        <v>2.125375347201962e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.376715648097369e-06</v>
+      </c>
+      <c r="F61" t="n">
+        <v>28.16013037162105</v>
+      </c>
+      <c r="G61" t="n">
+        <v>3.386688957263129e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.632026074324211</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1968,25 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>4.399340145174323e-05</v>
+        <v>4.486810582486848e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1.864195282278873e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>1.881283331090805e-05</v>
+        <v>1.699081376573979e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2.740695805204897e-06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>40.69497992625362</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.081268281577508e-07</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8.138995985250723</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1994,25 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>4.781891945372941e-05</v>
+        <v>4.918850495782249e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>2.251619335436263e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>2.366949495315845e-05</v>
+        <v>1.478591501048451e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2.45796450977778e-06</v>
+      </c>
+      <c r="F63" t="n">
+        <v>55.77524330654018</v>
+      </c>
+      <c r="G63" t="n">
+        <v>9.040335147147971e-11</v>
+      </c>
+      <c r="H63" t="n">
+        <v>11.15504866130803</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +2020,25 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>4.870427797318635e-05</v>
+        <v>5.104105157377952e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>2.284562382980033e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>2.451587303478425e-05</v>
+        <v>1.410286406001696e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.334997462659807e-06</v>
+      </c>
+      <c r="F64" t="n">
+        <v>76.24778441289052</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.10702591327572e-15</v>
+      </c>
+      <c r="H64" t="n">
+        <v>15.2495568825781</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +2046,25 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>5.294871972485209e-05</v>
+        <v>5.56217729666348e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2.512995760441305e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>2.670595517054605e-05</v>
+        <v>1.371142126928285e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2.312608720604447e-06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>82.56637719537575</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="H65" t="n">
+        <v>16.51327543907515</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +2072,25 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>5.623002261948877e-05</v>
+        <v>6.135792151830306e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2.745071399045613e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>2.986935354570585e-05</v>
+        <v>1.840796684458564e-06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2.954547202129925e-06</v>
+      </c>
+      <c r="F66" t="n">
+        <v>113.0822397594902</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>22.61644795189805</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +2098,25 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>5.335849604032478e-05</v>
+        <v>5.910639376285931e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2.778663641900398e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>2.865942029977719e-05</v>
+        <v>2.626317420092902e-06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.094212075498807e-06</v>
+      </c>
+      <c r="F67" t="n">
+        <v>87.84972716742845</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>17.56994543348569</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +2124,25 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>4.628456408293059e-05</v>
+        <v>5.264644962788509e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.411369926857746e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>1.465293283492008e-05</v>
+        <v>3.004604511073923e-06</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.497403348632453e-06</v>
+      </c>
+      <c r="F68" t="n">
+        <v>74.24175104483876</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.343369859796439e-14</v>
+      </c>
+      <c r="H68" t="n">
+        <v>14.84835020896775</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +2150,25 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>4.552554822870634e-05</v>
+        <v>5.180463087937308e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1.008960032221902e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>9.918301236709699e-06</v>
+        <v>4.150622560199859e-06</v>
+      </c>
+      <c r="E69" t="n">
+        <v>6.182453033841616e-06</v>
+      </c>
+      <c r="F69" t="n">
+        <v>46.46347306996344</v>
+      </c>
+      <c r="G69" t="n">
+        <v>7.308013305618033e-09</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9.292694613992689</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +2176,25 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>5.343230495925087e-05</v>
+        <v>5.62065294843613e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>3.387053890511953e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>-3.01458644487874e-06</v>
+        <v>3.855724591862782e-06</v>
+      </c>
+      <c r="E70" t="n">
+        <v>5.416502308270525e-06</v>
+      </c>
+      <c r="F70" t="n">
+        <v>65.68929530077219</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.062439604827887e-13</v>
+      </c>
+      <c r="H70" t="n">
+        <v>13.13785906015444</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +2202,25 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>2.619967971542297e-05</v>
+        <v>3.778895692453376e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-1.653793447844156e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.66627183291501e-06</v>
+        <v>4.918391925243831e-06</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6.949103726132545e-06</v>
+      </c>
+      <c r="F71" t="n">
+        <v>42.35700382241065</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.987488810836993e-08</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8.47140076448213</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +2228,25 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>3.496431599737247e-05</v>
+        <v>3.698232607571457e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>5.299448730205745e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>4.898428123269971e-06</v>
+        <v>6.151174671572749e-06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>9.473887508501734e-06</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.423480536118705</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.09331917444609461</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1.884696107223741</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +2254,25 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>4.570185476183079e-05</v>
+        <v>4.761094016555997e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>7.226677742408996e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>5.371737445065762e-06</v>
+        <v>3.385781214906538e-06</v>
+      </c>
+      <c r="E73" t="n">
+        <v>5.105428071415317e-06</v>
+      </c>
+      <c r="F73" t="n">
+        <v>31.98620283603001</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.978753101154588e-06</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6.397240567206002</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +2280,25 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>1.381420942681113e-05</v>
+        <v>1.62782743775873e-05</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>6.048394705718253e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>7.936629982015756e-06</v>
+        <v>3.763514392239914e-06</v>
+      </c>
+      <c r="E74" t="n">
+        <v>5.549771113647214e-06</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.05131475441076</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.5420518077239893</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.8102629508821521</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +2306,25 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>1.277076613124581e-05</v>
+        <v>1.323431439168593e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1.175648993100935e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1.357709124742548e-05</v>
+        <v>3.387215910264987e-06</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.276239206095993e-06</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.77297109137638</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.8795814273084313</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.354594218275276</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +2332,25 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>8.724555606531093e-06</v>
+        <v>1.03313544501433e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1.417469032286138e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>1.291017918350306e-05</v>
+        <v>2.203983195827102e-06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.950347940771904e-06</v>
+      </c>
+      <c r="F76" t="n">
+        <v>6.512057015524832</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.259529879566778</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1.302411403104966</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +2358,25 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>3.212161566848443e-05</v>
+        <v>3.703943503092603e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1.400166843505532e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>1.383896533193013e-05</v>
+        <v>3.123751640914263e-06</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.918770239239854e-06</v>
+      </c>
+      <c r="F77" t="n">
+        <v>54.12578990211437</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.974699292972559e-10</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10.82515798042287</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +2384,25 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>5.088734377597554e-05</v>
+        <v>7.243386750522384e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1.922055696121631e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>1.332099238731333e-07</v>
+        <v>4.337427070514562e-06</v>
+      </c>
+      <c r="E78" t="n">
+        <v>5.809003000796207e-06</v>
+      </c>
+      <c r="F78" t="n">
+        <v>289.2655719454757</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>57.85311438909514</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +2410,25 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>1.593462417875287e-05</v>
+        <v>5.119973413992365e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1.326767430284331e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>1.209325249262238e-05</v>
+        <v>4.571583123318075e-06</v>
+      </c>
+      <c r="E79" t="n">
+        <v>6.038463484974779e-06</v>
+      </c>
+      <c r="F79" t="n">
+        <v>776.9624058269339</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>155.3924811653868</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +2436,25 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>2.730500551726908e-05</v>
+        <v>8.121946070325186e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>4.36935193128283e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>2.604806467618985e-05</v>
+        <v>6.647176295982348e-06</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.775993650118568e-06</v>
+      </c>
+      <c r="F80" t="n">
+        <v>603.0681138234401</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>120.613622764688</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +2462,25 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>3.154318047568006e-05</v>
+        <v>8.446424691158702e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-7.788157083419989e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>3.996005679857021e-06</v>
+        <v>5.786005929662433e-06</v>
+      </c>
+      <c r="E81" t="n">
+        <v>7.299087652133755e-06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>671.5819930443275</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>134.3163986088655</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +2488,25 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>5.006100956628375e-05</v>
+        <v>8.25861624572527e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>6.897995945328255e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>1.082142384862395e-05</v>
+        <v>4.612762588033025e-06</v>
+      </c>
+      <c r="E82" t="n">
+        <v>6.158353227789677e-06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>384.0288674305682</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>76.80577348611364</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +2514,25 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001078447575329455</v>
+        <v>0.0001237130301761224</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>3.31086740908885e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>3.058771655684055e-05</v>
+        <v>4.612999741473637e-06</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.762861030800189e-06</v>
+      </c>
+      <c r="F83" t="n">
+        <v>189.9061011499163</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>37.98122022998326</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +2540,25 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>8.713214332210565e-05</v>
+        <v>0.0001146720432083869</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>4.559327443650467e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>4.896260097134936e-05</v>
+        <v>4.011830257051834e-06</v>
+      </c>
+      <c r="E84" t="n">
+        <v>5.892443499032358e-06</v>
+      </c>
+      <c r="F84" t="n">
+        <v>338.793226168603</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>67.75864523372061</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +2566,25 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>9.327237776951113e-05</v>
+        <v>0.0001219152647799042</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1.200928491675704e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>4.030180412093976e-06</v>
+        <v>3.650457463654319e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.855045533302352e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>444.4391859780384</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>88.88783719560767</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +2592,25 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>8.941383465308056e-05</v>
+        <v>0.0001053498492498718</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>6.127664619120498e-06</v>
       </c>
       <c r="D86" t="n">
-        <v>6.189726234682474e-06</v>
+        <v>2.87102064837919e-06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.030075106290406e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>260.1538647399486</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>52.03077294798972</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +2618,25 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>6.591203216948705e-05</v>
+        <v>7.577440905445103e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>2.237705988044325e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>2.310826529173453e-05</v>
+        <v>2.059582807968689e-06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.11515008653268e-06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>215.8401851782084</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>43.16803703564167</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +2644,25 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>6.640197838115133e-05</v>
+        <v>7.213363022892162e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2.427252830676273e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>2.553506346196369e-05</v>
+        <v>1.739783035476663e-06</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.782156205317112e-06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>135.427356722294</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>27.08547134445881</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +2670,25 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>7.01265326965405e-05</v>
+        <v>7.699584805640128e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2.689798947957436e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>2.816561421469712e-05</v>
+        <v>1.945353515633048e-06</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.087001422075806e-06</v>
+      </c>
+      <c r="F89" t="n">
+        <v>149.0161674054221</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>29.80323348108442</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +2696,25 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>9.27306204054402e-05</v>
+        <v>0.0001092231126685152</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>3.591742226048986e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>3.789902740256019e-05</v>
+        <v>2.742855652266513e-06</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.188518444372907e-06</v>
+      </c>
+      <c r="F90" t="n">
+        <v>267.859186930338</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>53.57183738606759</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +2722,25 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001423548523268609</v>
+        <v>0.0001816699487519407</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>3.323589214818232e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>3.46713836249992e-05</v>
+        <v>4.856365364387116e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.834589379537411e-06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>454.7061701150874</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>90.94123402301747</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +2748,25 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.000155489516143208</v>
+        <v>0.0001952959619656114</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>3.335812826190179e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3.482388299269279e-05</v>
+        <v>5.116288997330208e-06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.240892025631573e-06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>413.5632385432091</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>82.71264770864182</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +2774,25 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001676005697302546</v>
+        <v>0.0002022624163222463</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5.939485448418425e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>6.14587151279028e-05</v>
+        <v>5.236917448690623e-06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.799197862728249e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>323.2700027362609</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>64.6540005472522</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +2800,25 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001651206754092351</v>
+        <v>0.0001878615631725932</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>5.553038645395738e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>5.826312430489024e-05</v>
+        <v>5.248028015826454e-06</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.973652148928323e-06</v>
+      </c>
+      <c r="F94" t="n">
+        <v>189.3067486398052</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>37.86134972796103</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +2826,25 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001385278957556724</v>
+        <v>0.0001481724572647959</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>6.178355186765601e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>6.277568667932439e-05</v>
+        <v>5.60163432170584e-06</v>
+      </c>
+      <c r="E95" t="n">
+        <v>8.883607954248187e-06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>75.30219315748974</v>
+      </c>
+      <c r="G95" t="n">
+        <v>7.993605777301127e-15</v>
+      </c>
+      <c r="H95" t="n">
+        <v>15.06043863149795</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +2852,25 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0002511851544197608</v>
+        <v>0.0002561245792600969</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0001124571495779652</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001183106357327652</v>
+        <v>7.492876494201889e-06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.263604270854241e-05</v>
+      </c>
+      <c r="F96" t="n">
+        <v>36.27898524699692</v>
+      </c>
+      <c r="G96" t="n">
+        <v>8.352473584993803e-07</v>
+      </c>
+      <c r="H96" t="n">
+        <v>7.255797049399384</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +2878,25 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0005304885291881154</v>
+        <v>0.0005400394150645168</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0002527255832111034</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0002694693946534777</v>
+        <v>1.223360499397862e-05</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.1600534289592e-05</v>
+      </c>
+      <c r="F97" t="n">
+        <v>31.79832396831718</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.513327135970748e-06</v>
+      </c>
+      <c r="H97" t="n">
+        <v>6.359664793663436</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +2904,25 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0004734777916315214</v>
+        <v>0.0004793365198389765</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>0.000240852517024261</v>
       </c>
       <c r="D98" t="n">
-        <v>0.000258222575586226</v>
+        <v>1.062489352277831e-05</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.912563779341096e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>25.18575941991794</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.0001282844767594993</v>
+      </c>
+      <c r="H98" t="n">
+        <v>5.037151883983588</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +2930,25 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.000313310976420303</v>
+        <v>0.0003170614183040237</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>0.0001663220722835111</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001775415121676513</v>
+        <v>6.952548328536296e-06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.26146005257714e-05</v>
+      </c>
+      <c r="F99" t="n">
+        <v>27.12808179418866</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.385795539314397e-05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>5.425616358837731</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +2956,25 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0002036454227472671</v>
+        <v>0.0002055232274142077</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>9.455954784060056e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>9.940500547050525e-05</v>
+        <v>4.548945566240494e-06</v>
+      </c>
+      <c r="E100" t="n">
+        <v>8.207672448685947e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19.00366474444525</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.001919118049036883</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3.80073294888905</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +2982,25 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001013020379398722</v>
+        <v>0.0001019422638724851</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>4.427736584813985e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>4.55465840284561e-05</v>
+        <v>2.383477731125174e-06</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.287531835911086e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17.40619896035914</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.003790504090773195</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.481239792071828</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +3008,25 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>7.383498934451267e-05</v>
+        <v>7.425128733526031e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>2.495326912214466e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>2.569275265566987e-05</v>
+        <v>1.681526354330723e-06</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.95909239954875e-06</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.742673895462131</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.1197788151800594</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1.748534779092426</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +3034,25 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>7.467000521428479e-05</v>
+        <v>7.615148303407164e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2.143375783997488e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>2.337913726869402e-05</v>
+        <v>1.713935384782073e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.901007091292026e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>28.42328770222231</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3.008007107407895e-05</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5.684657540444461</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +3060,25 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>7.899623384836037e-05</v>
+        <v>8.091235781525372e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>2.115986713989959e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>2.340215516780838e-05</v>
+        <v>1.855012172842482e-06</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.104512151170576e-06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>34.55530424416565</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.845586936388699e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>6.911060848833129</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +3086,25 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>8.389849633542376e-05</v>
+        <v>8.59488029234112e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3.005102836880625e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>3.203594125508797e-05</v>
+        <v>1.864809461607517e-06</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.206397981889851e-06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>37.543934994037</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4.658934981138785e-07</v>
+      </c>
+      <c r="H105" t="n">
+        <v>7.508786998807399</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +3112,25 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>9.075094745429816e-05</v>
+        <v>9.235751709897963e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>3.327914685477932e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>3.53557991015677e-05</v>
+        <v>2.236079588665487e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.805077805435868e-06</v>
+      </c>
+      <c r="F106" t="n">
+        <v>27.82352847316561</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.940687146664068e-05</v>
+      </c>
+      <c r="H106" t="n">
+        <v>5.564705694633123</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +3138,25 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>8.998209349789579e-05</v>
+        <v>9.163314010619945e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>4.096771621664224e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>4.359121903553217e-05</v>
+        <v>2.185368773745064e-06</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.807360914625307e-06</v>
+      </c>
+      <c r="F107" t="n">
+        <v>33.81599885309958</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.590493099030589e-06</v>
+      </c>
+      <c r="H107" t="n">
+        <v>6.763199770619916</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +3164,25 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>9.143096603505384e-05</v>
+        <v>9.287745159747724e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3.168105146680543e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>3.35523118867427e-05</v>
+        <v>2.407458570880214e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>4.037687935789702e-06</v>
+      </c>
+      <c r="F108" t="n">
+        <v>26.0216213744474</v>
+      </c>
+      <c r="G108" t="n">
+        <v>8.837849386178487e-05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>5.20432427488948</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +3190,25 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>9.315479229049369e-05</v>
+        <v>9.55894617923653e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>3.02691435191103e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>3.265336020931507e-05</v>
+        <v>2.18801858158387e-06</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.680507423756869e-06</v>
+      </c>
+      <c r="F109" t="n">
+        <v>38.53345455279039</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2.947787612894714e-07</v>
+      </c>
+      <c r="H109" t="n">
+        <v>7.706690910558078</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +3216,25 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>9.262311478570779e-05</v>
+        <v>9.543847321895965e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>4.172913816993028e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>4.476906534633824e-05</v>
+        <v>2.357208633109297e-06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4.021117090068008e-06</v>
+      </c>
+      <c r="F110" t="n">
+        <v>49.18726266315912</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.03202388249224e-09</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9.837452532631824</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +3242,25 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>9.376237697522857e-05</v>
+        <v>9.730625417211041e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>3.220961464540012e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>3.506039426665918e-05</v>
+        <v>2.271357279019806e-06</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.796306463100705e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>56.32495676439551</v>
+      </c>
+      <c r="G111" t="n">
+        <v>6.96596114124759e-11</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11.2649913528791</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +3268,25 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>9.086407483858631e-05</v>
+        <v>9.533413605420601e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2.919424646132049e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>3.188969502587537e-05</v>
+        <v>2.289435044171712e-06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.727690148612928e-06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>74.97979547755834</v>
+      </c>
+      <c r="G112" t="n">
+        <v>9.436895709313831e-15</v>
+      </c>
+      <c r="H112" t="n">
+        <v>14.99595909551167</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +3294,25 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>9.371109508848246e-05</v>
+        <v>9.841760020152343e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>3.832806718891234e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>4.156138924750218e-05</v>
+        <v>2.455543739648075e-06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.067685181683479e-06</v>
+      </c>
+      <c r="F113" t="n">
+        <v>73.20241601138405</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2.209343819004062e-14</v>
+      </c>
+      <c r="H113" t="n">
+        <v>14.64048320227681</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +3320,25 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>8.975858494180385e-05</v>
+        <v>9.486524932855624e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>3.235726541244669e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>3.63220979475548e-05</v>
+        <v>2.309122759168226e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.783257788781457e-06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>80.46067216022436</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6.661338147750939e-16</v>
+      </c>
+      <c r="H114" t="n">
+        <v>16.09213443204487</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +3346,25 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>9.326501336080624e-05</v>
+        <v>9.815870588591701e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>3.254885067052185e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>3.486239966898335e-05</v>
+        <v>2.376539367508772e-06</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.88279939726318e-06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>78.82909793562931</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.443289932012704e-15</v>
+      </c>
+      <c r="H115" t="n">
+        <v>15.76581958712586</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +3372,25 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>9.250216645813542e-05</v>
+        <v>9.776857575034453e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>3.058941422060737e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>3.332489019086141e-05</v>
+        <v>2.420698239083076e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.909083877567911e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>84.35327535035709</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="H116" t="n">
+        <v>16.87065507007142</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +3398,25 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>9.170736499472217e-05</v>
+        <v>9.840507834719842e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>3.406127345218714e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>3.720260418287842e-05</v>
+        <v>2.434716468127803e-06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.939765151056283e-06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>101.3103478794464</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>20.26206957588929</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +3424,25 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001047779556992561</v>
+        <v>0.0001091297300450439</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>4.047716362131994e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>4.32592934493377e-05</v>
+        <v>2.746724944149798e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.542455232153346e-06</v>
+      </c>
+      <c r="F118" t="n">
+        <v>61.99070366153077</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4.710232204274689e-12</v>
+      </c>
+      <c r="H118" t="n">
+        <v>12.39814073230615</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +3450,25 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>9.568486340273611e-05</v>
+        <v>0.0001011907900061951</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>3.476641983178547e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>3.835914670794016e-05</v>
+        <v>2.37535440722525e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.906654799212927e-06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>86.02350624064209</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>17.20470124812842</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +3476,25 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>9.467884523946348e-05</v>
+        <v>0.0001005362483130711</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>3.426958582011619e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>3.647870376550383e-05</v>
+        <v>2.502080970012221e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4.045381628550169e-06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>94.12082347352268</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>18.82416469470454</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +3502,25 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>9.632709497602299e-05</v>
+        <v>0.0001022664777121705</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3.712532810057924e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>4.079843250264486e-05</v>
+        <v>2.440102238651797e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.996005714106614e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>92.45306845587743</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>18.49061369117549</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +3528,25 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0001068717467850127</v>
+        <v>0.0001119400578490644</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>4.672587539968054e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>4.993852822114861e-05</v>
+        <v>2.712869529673056e-06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.56762564697027e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>73.01214070042263</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.420286193682841e-14</v>
+      </c>
+      <c r="H122" t="n">
+        <v>14.60242814008453</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +3554,25 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0001005595288650974</v>
+        <v>0.0001059528265570449</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>4.473947871756837e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>4.882050938281623e-05</v>
+        <v>2.434408616867417e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.099254299709701e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>86.96206963874113</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>17.39241392774823</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +3580,25 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>9.933658710603791e-05</v>
+        <v>0.0001066180739494796</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>4.637706221883336e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>5.185282729601438e-05</v>
+        <v>2.369183938466989e-06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.975801632273479e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>113.4785953123269</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>22.69571906246538</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +3606,25 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0001176155870385383</v>
+        <v>0.0001221237740309882</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>4.622284134541021e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>4.973846137289246e-05</v>
+        <v>2.854430437269545e-06</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.79843242775267e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>57.97150518463064</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.188327379888278e-11</v>
+      </c>
+      <c r="H125" t="n">
+        <v>11.59430103692613</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +3632,25 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>0.000117415501617216</v>
+        <v>0.0001248129404139123</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>5.423164552047577e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>6.012068688486211e-05</v>
+        <v>2.819714581905709e-06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.739012373744332e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>99.71554763296234</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>19.94310952659247</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +3658,25 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001325474296056554</v>
+        <v>0.0001413248068755799</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>4.996304947494006e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>5.511404175288229e-05</v>
+        <v>3.258804929877222e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.335890895722025e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>97.97432546239766</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>19.59486509247953</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +3684,25 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001302565020318149</v>
+        <v>0.0001394946958267981</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>4.450353264599157e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>4.899500397559884e-05</v>
+        <v>3.196515056352579e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.177498053340573e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>103.4682570521075</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>20.69365141042151</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +3710,25 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.000158329711129047</v>
+        <v>0.0001702172766418062</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>4.399073893977538e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>4.570946741242638e-05</v>
+        <v>4.064600005889767e-06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.407141474936012e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>110.4370644819109</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>22.08741289638217</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +3736,25 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002717467690085477</v>
+        <v>0.0002853174519946476</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>6.94787904507961e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>7.39653116589037e-05</v>
+        <v>6.870105770001082e-06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.09668289332236e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>69.70561030046818</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.180167075176541e-13</v>
+      </c>
+      <c r="H130" t="n">
+        <v>13.94112206009364</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +3762,25 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0003838318698236686</v>
+        <v>0.0003970108380612285</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.0001215850288791575</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0001294734307550302</v>
+        <v>9.14660095564077e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.514437000336774e-05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>49.46870290778743</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.779853042727098e-09</v>
+      </c>
+      <c r="H131" t="n">
+        <v>9.893740581557486</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +3788,25 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003852373679500413</v>
+        <v>0.0003979238892594646</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.0001203857063541355</v>
       </c>
       <c r="D132" t="n">
-        <v>0.0001294624582531154</v>
+        <v>9.504688822723081e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.571039152298664e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>46.94642733735538</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.826147786436309e-09</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9.389285467471076</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +3814,25 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003531881410232756</v>
+        <v>0.0003682607713474925</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>0.0001101080866674145</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0001178470776365073</v>
+        <v>8.665324321331675e-06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.418001421226185e-05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>60.24848298284029</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.079902833822644e-11</v>
+      </c>
+      <c r="H133" t="n">
+        <v>12.04969659656806</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +3840,25 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003547237875421041</v>
+        <v>0.0003663666445156719</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>0.0001020413882194972</v>
       </c>
       <c r="D134" t="n">
-        <v>0.0001086393000798274</v>
+        <v>8.634674844731805e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.415507185253915e-05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>47.89416589161511</v>
+      </c>
+      <c r="G134" t="n">
+        <v>3.733067188704808e-09</v>
+      </c>
+      <c r="H134" t="n">
+        <v>9.578833178323022</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +3866,25 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0003449848958274766</v>
+        <v>0.0003577853809393578</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>0.0001048477711979699</v>
       </c>
       <c r="D135" t="n">
-        <v>0.0001120092492551319</v>
+        <v>8.542900075325692e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.398525465600962e-05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>52.27139899419051</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.745738246825226e-10</v>
+      </c>
+      <c r="H135" t="n">
+        <v>10.4542797988381</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +3892,25 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0003330194954236504</v>
+        <v>0.0003429264212667145</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>9.281364416294512e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>9.476563424475717e-05</v>
+        <v>8.504805182589802e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.385801623334545e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>42.58958612167879</v>
+      </c>
+      <c r="G136" t="n">
+        <v>4.474874037985188e-08</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8.517917224335758</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +3918,25 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003017104913891718</v>
+        <v>0.0003102432586157341</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>9.144139829160385e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>9.474566752090945e-05</v>
+        <v>7.600057800641269e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.251821996245044e-05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>38.99037797045689</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2.385450439401637e-07</v>
+      </c>
+      <c r="H137" t="n">
+        <v>7.798075594091378</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +3944,25 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002309525945418595</v>
+        <v>0.0002353797513288487</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>9.9219002161534e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0001054108606911135</v>
+        <v>6.094540586654226e-06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.043032420733058e-05</v>
+      </c>
+      <c r="F138" t="n">
+        <v>31.92528438362575</v>
+      </c>
+      <c r="G138" t="n">
+        <v>6.147126389244306e-06</v>
+      </c>
+      <c r="H138" t="n">
+        <v>6.38505687672515</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +3970,25 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001528706763304522</v>
+        <v>0.000160138235707179</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>5.710822923698754e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>6.094245410893681e-05</v>
+        <v>4.230418753062659e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.901813535916249e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>66.54833378930395</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.347944309619379e-13</v>
+      </c>
+      <c r="H139" t="n">
+        <v>13.30966675786079</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +3996,25 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002874243953521428</v>
+        <v>0.0003054589422829475</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.0001116428541822283</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0001202582734252953</v>
+        <v>6.758795290146366e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.118860091441554e-05</v>
+      </c>
+      <c r="F140" t="n">
+        <v>94.58558236416573</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>18.91711647283315</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +4022,25 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002951892464829179</v>
+        <v>0.0003088877800609299</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.0001256115343782937</v>
       </c>
       <c r="D141" t="n">
-        <v>0.0001365870325296924</v>
+        <v>6.824962856980909e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.160129040710962e-05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>70.62455594744655</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7.593925488436071e-14</v>
+      </c>
+      <c r="H141" t="n">
+        <v>14.12491118948931</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +4048,25 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002772933332918712</v>
+        <v>0.0002981207979526558</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.0001088640447693168</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0001163101177527187</v>
+        <v>6.384624287650281e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.052778219382494e-05</v>
+      </c>
+      <c r="F142" t="n">
+        <v>117.1170998846176</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>23.42341997692353</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +4074,25 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000234964874978426</v>
+        <v>0.0002564601162599204</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>0.0001177474310719965</v>
       </c>
       <c r="D143" t="n">
-        <v>0.0001276833721095631</v>
+        <v>5.642384489286364e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.404717948518045e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>154.9032934549068</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>30.98065869098136</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +4100,25 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002347923241215563</v>
+        <v>0.000256443606070248</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>0.0001197317848068583</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0001275343766070467</v>
+        <v>5.694422626135424e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>9.496259416174621e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>158.5783022639156</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>31.71566045278313</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +4126,25 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.000364988514534352</v>
+        <v>0.0004154915090214828</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>0.0002017102874060861</v>
       </c>
       <c r="D145" t="n">
-        <v>0.0002027541329759314</v>
+        <v>1.003564243521527e-05</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.62735978298254e-05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>227.7594509019073</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>45.55189018038145</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +4152,25 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004840866220679712</v>
+        <v>0.0005464898130366759</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0002874083563134288</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0002984979803952336</v>
+        <v>1.230056594083883e-05</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.040705155570967e-05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>228.9572249446094</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>45.79144498892187</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +4178,25 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000465923927828743</v>
+        <v>0.0005293898979734272</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0002716964292978399</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0002835106737590179</v>
+        <v>1.258194037124115e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.059378103602876e-05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>225.4974478141704</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>45.09948956283409</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +4204,25 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0004793811915702399</v>
+        <v>0.0005392331189366887</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.0002980944018292799</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0003070742883592766</v>
+        <v>1.304344239160562e-05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.161070440278766e-05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>207.6672164855281</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>41.53344329710562</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +4230,25 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0004703122373999357</v>
+        <v>0.0005309302619780974</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0002845738408818108</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0002971476624288554</v>
+        <v>1.286191658413585e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.120527555763436e-05</v>
+      </c>
+      <c r="F149" t="n">
+        <v>208.5496352577641</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>41.70992705155282</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +4256,25 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0004710557231264663</v>
+        <v>0.0005331686622468259</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0002634310953576778</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0002740864661155712</v>
+        <v>1.288020516674607e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.100932542547091e-05</v>
+      </c>
+      <c r="F150" t="n">
+        <v>208.1546545778521</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>41.63093091557042</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +4282,25 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0009519734614638551</v>
+        <v>0.001011785932528331</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0005282752000982978</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0005702788847836591</v>
+        <v>2.20244780841167e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.794873274180244e-05</v>
+      </c>
+      <c r="F151" t="n">
+        <v>112.8900126226621</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>22.57800252453242</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +4308,25 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.001059460778393498</v>
+        <v>0.00111123652925724</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.0005402386946037211</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0005857446017727802</v>
+        <v>2.376955796848654e-05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>4.112439976412787e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>86.46150128046057</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>17.29230025609211</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +4334,25 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009939758316718269</v>
+        <v>0.001042249413022051</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0005260868146055849</v>
       </c>
       <c r="D153" t="n">
-        <v>0.000571427301671752</v>
+        <v>2.261724037515627e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.922234224661817e-05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>86.30420625225325</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>17.26084125045065</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +4360,25 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009591388489185023</v>
+        <v>0.001006992042578358</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.0005142156758523899</v>
       </c>
       <c r="D154" t="n">
-        <v>0.000560590404046739</v>
+        <v>2.171450308148783e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.774296175769815e-05</v>
+      </c>
+      <c r="F154" t="n">
+        <v>88.13628282402661</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>17.62725656480532</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +4386,25 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0009701523050393569</v>
+        <v>0.001014798854921566</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.0005235658781710581</v>
       </c>
       <c r="D155" t="n">
-        <v>0.000566951924188894</v>
+        <v>2.202737037817826e-05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.84520269147662e-05</v>
+      </c>
+      <c r="F155" t="n">
+        <v>82.84241169380041</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="H155" t="n">
+        <v>16.56848233876008</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +4412,25 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000925217899208152</v>
+        <v>0.0009654211754505526</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.0004945605509915178</v>
       </c>
       <c r="D156" t="n">
-        <v>0.000540677034029774</v>
+        <v>2.101284199501942e-05</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.66708538990318e-05</v>
+      </c>
+      <c r="F156" t="n">
+        <v>76.07896222165536</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.551115123125783e-15</v>
+      </c>
+      <c r="H156" t="n">
+        <v>15.21579244433107</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +4438,25 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0008732591478694366</v>
+        <v>0.0009105253568360613</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.0004489813865731363</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0004913499096006932</v>
+        <v>1.971353038731e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.433260148508252e-05</v>
+      </c>
+      <c r="F157" t="n">
+        <v>73.72140343802776</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.720845688168993e-14</v>
+      </c>
+      <c r="H157" t="n">
+        <v>14.74428068760555</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +4464,25 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007557964779022193</v>
+        <v>0.0007745046813361366</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0003598674425566095</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0003882294973928618</v>
+        <v>1.655196199003992e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.91711506396173e-05</v>
+      </c>
+      <c r="F158" t="n">
+        <v>44.36770271565215</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.950368944125813e-08</v>
+      </c>
+      <c r="H158" t="n">
+        <v>8.87354054313043</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +4490,25 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005555146698199691</v>
+        <v>0.0005636110715382828</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0002544313159903627</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0002735267195465744</v>
+        <v>1.274644504152507e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.250889951659016e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>25.83658782649544</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9.598888139861206e-05</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5.167317565299088</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +4516,25 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003261975062709869</v>
+        <v>0.0003285889719126811</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.0001412765081523369</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0001485815143014913</v>
+        <v>7.594956268653524e-06</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.349804650246692e-05</v>
+      </c>
+      <c r="F160" t="n">
+        <v>14.69427713716176</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.01175172534798563</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2.938855427432351</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +4542,25 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0003418480309326298</v>
+        <v>0.0003448493418182975</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0001637176141357136</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001715889709058564</v>
+        <v>8.364858897646895e-06</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.492243615245681e-05</v>
+      </c>
+      <c r="F161" t="n">
+        <v>19.38432244213479</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.001629647409025603</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.876864488426958</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +4568,25 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001830983754576796</v>
+        <v>0.0001853759296132984</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>6.668273846258528e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>6.953169662435215e-05</v>
+        <v>4.834678832823563e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>8.182134983678915e-06</v>
+      </c>
+      <c r="F162" t="n">
+        <v>21.38362357680873</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.0006854118893073746</v>
+      </c>
+      <c r="H162" t="n">
+        <v>4.276724715361746</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +4594,25 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001569830455737473</v>
+        <v>0.0001612402851946726</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>4.056903920102078e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>4.222592434586898e-05</v>
+        <v>4.549882047345965e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>7.302407173513865e-06</v>
+      </c>
+      <c r="F163" t="n">
+        <v>40.0787137764683</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.439768713140666e-07</v>
+      </c>
+      <c r="H163" t="n">
+        <v>8.01574275529366</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +4620,25 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001584986660485769</v>
+        <v>0.0001655708660671068</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>4.180474735288278e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>4.249026865700349e-05</v>
+        <v>4.492180850892629e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>7.119916794689543e-06</v>
+      </c>
+      <c r="F164" t="n">
+        <v>62.88579792845785</v>
+      </c>
+      <c r="G164" t="n">
+        <v>3.074096532884596e-12</v>
+      </c>
+      <c r="H164" t="n">
+        <v>12.57715958569157</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +4646,25 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001519857162405901</v>
+        <v>0.0001599112411951867</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>4.450805257953189e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>4.702753523220958e-05</v>
+        <v>4.388640355698195e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>6.960874100723629e-06</v>
+      </c>
+      <c r="F165" t="n">
+        <v>79.89573427662648</v>
+      </c>
+      <c r="G165" t="n">
+        <v>8.881784197001252e-16</v>
+      </c>
+      <c r="H165" t="n">
+        <v>15.9791468553253</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +4672,25 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001469739322720435</v>
+        <v>0.0001589255399241811</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>3.542822124405785e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>3.617420438281748e-05</v>
+        <v>4.453420732677547e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>6.828101448022269e-06</v>
+      </c>
+      <c r="F166" t="n">
+        <v>107.0999474035169</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>21.41998948070337</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +4698,25 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001587077741976608</v>
+        <v>0.0001688022718647767</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>4.10940141512396e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>4.09641715706204e-05</v>
+        <v>4.919512995133224e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>7.638733981810103e-06</v>
+      </c>
+      <c r="F167" t="n">
+        <v>85.17719187899118</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="H167" t="n">
+        <v>17.03543837579824</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +4724,25 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001525804859413898</v>
+        <v>0.0001648834899348123</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>3.433826321427997e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>3.441435144233172e-05</v>
+        <v>4.36740526257511e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.677221102198352e-06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>120.7497727694195</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>24.1499545538839</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +4750,25 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001500164333891485</v>
+        <v>0.0001668727720294516</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>3.822300233481457e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>4.040955484024409e-05</v>
+        <v>4.261961294194941e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.504322290269666e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>154.175460299965</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>30.83509205999299</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +4776,25 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001578234565643547</v>
+        <v>0.0001751045837519189</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>5.301259046605685e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>5.618043033824078e-05</v>
+        <v>4.256377662988982e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.645682262835219e-06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>163.0277336535491</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>32.60554673070983</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +4802,25 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001648902761465966</v>
+        <v>0.0001798323681043495</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>6.848479140339627e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>7.35427766588327e-05</v>
+        <v>4.472049388723817e-06</v>
+      </c>
+      <c r="E171" t="n">
+        <v>7.196446962534789e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>134.4907915081662</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>26.89815830163324</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +4828,25 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001752780677459199</v>
+        <v>0.0001956163060583036</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>7.545937674490038e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>8.064251994008136e-05</v>
+        <v>4.403672932172447e-06</v>
+      </c>
+      <c r="E172" t="n">
+        <v>7.084376238570902e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>192.7522832950477</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>38.55045665900953</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +4854,25 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0002042496778379009</v>
+        <v>0.0002345449143782939</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>9.265186469577195e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>9.529523051126348e-05</v>
+        <v>5.342674038645591e-06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>8.47521473380619e-06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>256.5492679667732</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>51.30985359335464</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +4880,25 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002387865044465104</v>
+        <v>0.0002906748208535703</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>0.0001221647192327804</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0001230818701269094</v>
+        <v>7.125735048177029e-06</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.10126348437638e-05</v>
+      </c>
+      <c r="F174" t="n">
+        <v>373.3060496161779</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>74.66120992323557</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +4906,25 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002761086384181529</v>
+        <v>0.0003511175033752192</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>0.0001103702589335984</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0001002617597777563</v>
+        <v>8.382144224418489e-06</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.239765576127568e-05</v>
+      </c>
+      <c r="F175" t="n">
+        <v>550.5476622725588</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>110.1095324545118</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +4932,25 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.000289488987158574</v>
+        <v>0.0003758024382341697</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>0.000146757867948408</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0001394000243545584</v>
+        <v>9.662095318381906e-06</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.440835470682582e-05</v>
+      </c>
+      <c r="F176" t="n">
+        <v>534.0595044497582</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>106.8119008899516</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +4958,25 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003363989296286428</v>
+        <v>0.00045903317763037</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>0.0001317214052272482</v>
       </c>
       <c r="D177" t="n">
-        <v>0.000128257715437907</v>
+        <v>1.278477220956144e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.807135556949796e-05</v>
+      </c>
+      <c r="F177" t="n">
+        <v>635.6102127736999</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>127.12204255474</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +4984,25 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004298788152978411</v>
+        <v>0.0005817893128146547</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>0.0001865971200795171</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0001735399040056862</v>
+        <v>1.565817955901463e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.245516285405511e-05</v>
+      </c>
+      <c r="F178" t="n">
+        <v>667.1749663215619</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>133.4349932643124</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +5010,25 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.000482613233043632</v>
+        <v>0.0006541201257898389</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>0.0002299319747441089</v>
       </c>
       <c r="D179" t="n">
-        <v>0.0002265452171334728</v>
+        <v>1.831941506191094e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.638671064359981e-05</v>
+      </c>
+      <c r="F179" t="n">
+        <v>594.80007722954</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>118.960015445908</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +5036,25 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000554157758431298</v>
+        <v>0.0007305809380761751</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.0003334587898535889</v>
       </c>
       <c r="D180" t="n">
-        <v>0.000316143147672774</v>
+        <v>1.952014401028251e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.934311219681947e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>553.56336629058</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>110.712673258116</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +5062,25 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007281286026714831</v>
+        <v>0.0009278296524924444</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.0005036673247838531</v>
       </c>
       <c r="D181" t="n">
-        <v>0.0004754850396343514</v>
+        <v>2.350816480720635e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.688814059428071e-05</v>
+      </c>
+      <c r="F181" t="n">
+        <v>471.9120537636265</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>94.38241075272531</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +5088,25 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007614696980975425</v>
+        <v>0.0009475324135831998</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.0004913513104166817</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0004519880091411558</v>
+        <v>2.218440403886283e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.517219488740344e-05</v>
+      </c>
+      <c r="F182" t="n">
+        <v>485.7738680828404</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>97.15477361656808</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +5114,25 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001284984819385484</v>
+        <v>0.001522109960668166</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.0008500911148935874</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0008644455706052675</v>
+        <v>3.600760792104248e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>5.859375748583898e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>320.8005565686821</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>64.16011131373641</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +5140,25 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001700342397082609</v>
+        <v>0.001947904684961243</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.00108493382805192</v>
       </c>
       <c r="D184" t="n">
-        <v>0.001122582043442238</v>
+        <v>4.510629541016871e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7.458005017880533e-05</v>
+      </c>
+      <c r="F184" t="n">
+        <v>259.2439990389673</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>51.84879980779345</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +5166,25 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002269783468847044</v>
+        <v>0.002550229505458432</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.001489708810212699</v>
       </c>
       <c r="D185" t="n">
-        <v>0.001552150804091381</v>
+        <v>5.478901858212608e-05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>9.281639683773163e-05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>249.7968038893282</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>49.95936077786565</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +5192,25 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002627003360725041</v>
+        <v>0.002935295213284112</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.001891916843272252</v>
       </c>
       <c r="D186" t="n">
-        <v>0.001957889888914901</v>
+        <v>6.248865456671661e-05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.0001078218710461154</v>
+      </c>
+      <c r="F186" t="n">
+        <v>247.81667785387</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>49.563335570774</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +5218,25 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002613136517155683</v>
+        <v>0.002900051989875964</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.001758520492805355</v>
       </c>
       <c r="D187" t="n">
-        <v>0.001834624526609891</v>
+        <v>6.015249927756015e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.0001035624457992828</v>
+      </c>
+      <c r="F187" t="n">
+        <v>236.9550822197424</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>47.39101644394848</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +5244,25 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.002530560849702139</v>
+        <v>0.002836413160984009</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.001588129116545376</v>
       </c>
       <c r="D188" t="n">
-        <v>0.001615834035129741</v>
+        <v>5.966277145750616e-05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.0001011279427831862</v>
+      </c>
+      <c r="F188" t="n">
+        <v>242.5578794732686</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>48.51157589465372</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +5270,25 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.002656722105096832</v>
+        <v>0.002916666691138078</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.00168330275318483</v>
       </c>
       <c r="D189" t="n">
-        <v>0.001775995655206054</v>
+        <v>6.089836349812467e-05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0001047081504597792</v>
+      </c>
+      <c r="F189" t="n">
+        <v>201.3647191906787</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>40.27294383813574</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +5296,25 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.002157098873235603</v>
+        <v>0.002350521308353796</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.001383813227013328</v>
       </c>
       <c r="D190" t="n">
-        <v>0.001472429720039287</v>
+        <v>4.806509348088291e-05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>8.345363345307887e-05</v>
+      </c>
+      <c r="F190" t="n">
+        <v>188.6458420033064</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>37.72916840066129</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +5322,25 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001673963724978149</v>
+        <v>0.001805735041796391</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.00104497045560843</v>
       </c>
       <c r="D191" t="n">
-        <v>0.00111567309970383</v>
+        <v>3.74420897377005e-05</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.518205842089349e-05</v>
+      </c>
+      <c r="F191" t="n">
+        <v>160.2622608242954</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>32.05245216485908</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +5348,25 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001259113589437429</v>
+        <v>0.001336879058348054</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.0007124937479231265</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0007672962042468064</v>
+        <v>2.799239081619557e-05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.870074683185331e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>117.4673520186112</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>23.49347040372223</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +5374,25 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0009291588689103293</v>
+        <v>0.0009636984392765838</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>0.0005168826687843184</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0005615994487681108</v>
+        <v>2.034791837620943e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.61011412026344e-05</v>
+      </c>
+      <c r="F193" t="n">
+        <v>70.61761564261458</v>
+      </c>
+      <c r="G193" t="n">
+        <v>7.627232179174825e-14</v>
+      </c>
+      <c r="H193" t="n">
+        <v>14.12352312852292</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +5400,25 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0006863526679522525</v>
+        <v>0.0007024193786830939</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.0003765058139482184</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0004090681269231307</v>
+        <v>1.530443515545303e-05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.752305119244612e-05</v>
+      </c>
+      <c r="F194" t="n">
+        <v>44.35626235415913</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.96083211889686e-08</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8.871252470831825</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +5426,25 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005403359041485096</v>
+        <v>0.0005428745832617118</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.0003035057397648543</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0003203645141793412</v>
+        <v>1.236090204385052e-05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.274506585811532e-05</v>
+      </c>
+      <c r="F195" t="n">
+        <v>14.46671636727858</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.01290139005893254</v>
+      </c>
+      <c r="H195" t="n">
+        <v>2.893343273455716</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +5452,25 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005604820009989961</v>
+        <v>0.0005642939307320326</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.0002850001160568208</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0002961763205903133</v>
+        <v>1.228663092952646e-05</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.264330516606562e-05</v>
+      </c>
+      <c r="F196" t="n">
+        <v>15.77598731427493</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.007513611558628952</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3.155197462854986</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +5478,25 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005095080316953656</v>
+        <v>0.0005112619658725317</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.0002522917747438736</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000252563601576754</v>
+        <v>1.099324678254617e-05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.06687401648977e-05</v>
+      </c>
+      <c r="F197" t="n">
+        <v>9.444662973249502</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.09258932773597461</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1.8889325946499</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +5504,25 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0004698557330360704</v>
+        <v>0.0004699628116947315</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>0.0002446112540115837</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0002453890150640184</v>
+        <v>1.016375993232395e-05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.932504249562659e-05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2.842379594200977</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.7242705869174988</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.5684759188401954</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +5530,25 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000468454366099174</v>
+        <v>0.0004702981800975953</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>0.0002322674604934524</v>
       </c>
       <c r="D199" t="n">
-        <v>0.000224218168489978</v>
+        <v>9.974482721484631e-06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.910958016396139e-05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>9.185336838290365</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.1018961542728453</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.837067367658073</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +5556,25 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0004189289799922206</v>
+        <v>0.0004196261286764412</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>0.0002058825262341929</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0002007157881333204</v>
+        <v>8.956645778999013e-06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1.715137778579468e-05</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2.322567487415125</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.8029466974018413</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.4645134974830249</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +5582,25 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004133893217611869</v>
+        <v>0.0004163599602133075</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>0.0002025172245397856</v>
       </c>
       <c r="D201" t="n">
-        <v>0.000186875405149737</v>
+        <v>8.715130246215846e-06</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.697061055417402e-05</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12.86961022211961</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.02463178683248402</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.573922044423923</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +5608,25 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0004089600260880212</v>
+        <v>0.0004102129314001859</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>0.0001947762690823184</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0001866267785634877</v>
+        <v>8.567534506135351e-06</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.648511457517621e-05</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4.13235014918626</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5305225414818791</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.826470029837252</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +5634,25 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0004240527806748644</v>
+        <v>0.0004242761180528951</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>0.0002020149873956783</v>
       </c>
       <c r="D203" t="n">
-        <v>0.0002070209705873868</v>
+        <v>9.570984438154028e-06</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.768154603910556e-05</v>
+      </c>
+      <c r="F203" t="n">
+        <v>5.052856011004638</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.4094637124691526</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.010571202200928</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +5660,25 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004001668059193184</v>
+        <v>0.000401892349171708</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.0001994720190694225</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0001920909318393464</v>
+        <v>8.287988733820595e-06</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.597284468241476e-05</v>
+      </c>
+      <c r="F204" t="n">
+        <v>8.768298566662486</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.1186705622465405</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.753659713332497</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +5686,25 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004810886503746699</v>
+        <v>0.0004883139833555741</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>0.0002282715787924768</v>
       </c>
       <c r="D205" t="n">
-        <v>0.0002451618114518425</v>
+        <v>1.106186126038801e-05</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.962304529588285e-05</v>
+      </c>
+      <c r="F205" t="n">
+        <v>27.96090786425879</v>
+      </c>
+      <c r="G205" t="n">
+        <v>3.70448485886854e-05</v>
+      </c>
+      <c r="H205" t="n">
+        <v>5.592181572851757</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +5712,25 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0004979306388416929</v>
+        <v>0.0005049637187037821</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.0002536062598965421</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0002728529890515013</v>
+        <v>1.062506842262432e-05</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.927799602551424e-05</v>
+      </c>
+      <c r="F206" t="n">
+        <v>28.23410269141825</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3.275705405081375e-05</v>
+      </c>
+      <c r="H206" t="n">
+        <v>5.64682053828365</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +5738,25 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004584154219058353</v>
+        <v>0.0004675979406946468</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>0.0002184532349453444</v>
       </c>
       <c r="D207" t="n">
-        <v>0.000236200725961434</v>
+        <v>1.058589116903282e-05</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.860881157497872e-05</v>
+      </c>
+      <c r="F207" t="n">
+        <v>34.8548583321114</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.608407119713107e-06</v>
+      </c>
+      <c r="H207" t="n">
+        <v>6.97097166642228</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +5764,25 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.000458953168183959</v>
+        <v>0.0004662697922052434</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>0.0002198113389262098</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0002348848724259471</v>
+        <v>1.055239223091279e-05</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.868426292330088e-05</v>
+      </c>
+      <c r="F208" t="n">
+        <v>29.28227237009535</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2.041051436174612e-05</v>
+      </c>
+      <c r="H208" t="n">
+        <v>5.856454474019069</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +5790,25 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0004455036659570501</v>
+        <v>0.0004558581456364004</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>0.0002262562185427299</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0002460197500609912</v>
+        <v>1.034103169755939e-05</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.82392724951599e-05</v>
+      </c>
+      <c r="F209" t="n">
+        <v>41.42276638123663</v>
+      </c>
+      <c r="G209" t="n">
+        <v>7.707189453309837e-08</v>
+      </c>
+      <c r="H209" t="n">
+        <v>8.284553276247326</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +5816,25 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0004397917562641622</v>
+        <v>0.0004501138960468989</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>0.0002086084462093082</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0002238898370450441</v>
+        <v>1.033238800289748e-05</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.803823660769944e-05</v>
+      </c>
+      <c r="F210" t="n">
+        <v>40.50685887176989</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.18007559946065e-07</v>
+      </c>
+      <c r="H210" t="n">
+        <v>8.101371774353977</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +5842,25 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0004473094212459057</v>
+        <v>0.0004576443422714263</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>0.0001971806554571454</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0002117978852713676</v>
+        <v>9.755280318417354e-06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.70960310183903e-05</v>
+      </c>
+      <c r="F211" t="n">
+        <v>39.91060448094438</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.556654729562013e-07</v>
+      </c>
+      <c r="H211" t="n">
+        <v>7.982120896188876</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +5868,25 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0004528164557147273</v>
+        <v>0.0004612826467496549</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>0.0002298696054831396</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0002483664087247476</v>
+        <v>9.719945247148728e-06</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.749081437414787e-05</v>
+      </c>
+      <c r="F212" t="n">
+        <v>35.53395522920395</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.177089759774042e-06</v>
+      </c>
+      <c r="H212" t="n">
+        <v>7.106791045840789</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +5894,25 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0004376770783500953</v>
+        <v>0.0004494686874533113</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>0.0001921679845884405</v>
       </c>
       <c r="D213" t="n">
-        <v>0.0002072307965697883</v>
+        <v>1.012751144404442e-05</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.749501698927373e-05</v>
+      </c>
+      <c r="F213" t="n">
+        <v>43.76162607679151</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2.589174730172061e-08</v>
+      </c>
+      <c r="H213" t="n">
+        <v>8.752325215358301</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +5920,25 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004631360522600035</v>
+        <v>0.0004706180744623672</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>0.0002391368972388372</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0002549875691018832</v>
+        <v>9.881975658036176e-06</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.791971464726737e-05</v>
+      </c>
+      <c r="F214" t="n">
+        <v>31.98313296577884</v>
+      </c>
+      <c r="G214" t="n">
+        <v>5.987127222550903e-06</v>
+      </c>
+      <c r="H214" t="n">
+        <v>6.396626593155768</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +5946,25 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0004302141978273263</v>
+        <v>0.0004395895263423913</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>0.0002177374727481008</v>
       </c>
       <c r="D215" t="n">
-        <v>0.0002351489925815724</v>
+        <v>9.082537920411474e-06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.632256212939692e-05</v>
+      </c>
+      <c r="F215" t="n">
+        <v>40.8745639161567</v>
+      </c>
+      <c r="G215" t="n">
+        <v>9.946464274435129e-08</v>
+      </c>
+      <c r="H215" t="n">
+        <v>8.17491278323134</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +5972,25 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0003983898071174398</v>
+        <v>0.0004057849464266483</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>0.0001833215459481009</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0001981760901668557</v>
+        <v>8.410851863924494e-06</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.495159210219605e-05</v>
+      </c>
+      <c r="F216" t="n">
+        <v>33.93346719481958</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.454733612711202e-06</v>
+      </c>
+      <c r="H216" t="n">
+        <v>6.786693438963917</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +5998,25 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0003483793583795763</v>
+        <v>0.0003521697618302678</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>0.0001514814878180714</v>
       </c>
       <c r="D217" t="n">
-        <v>0.0001616891663872028</v>
+        <v>7.300320501748842e-06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>1.310025882685179e-05</v>
+      </c>
+      <c r="F217" t="n">
+        <v>19.31793401903405</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.001676843976256781</v>
+      </c>
+      <c r="H217" t="n">
+        <v>3.86358680380681</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +6024,25 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0003359332731769768</v>
+        <v>0.0003387657448015303</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>0.0001471652707769734</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0001560998145182381</v>
+        <v>6.931911352659351e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.255022711127104e-05</v>
+      </c>
+      <c r="F218" t="n">
+        <v>15.47296802673402</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.008521508354293883</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3.094593605346803</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +6050,25 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0003450231540154857</v>
+        <v>0.0003485943678254947</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>0.0001558051317774782</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0001643652378037442</v>
+        <v>7.073145490061742e-06</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.285014496932835e-05</v>
+      </c>
+      <c r="F219" t="n">
+        <v>19.14171892771402</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.001808727023960399</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3.828343785542804</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +6076,25 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0003363093688824781</v>
+        <v>0.0003388213496278433</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>0.0001446704658162068</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0001528368231807986</v>
+        <v>6.847747306583249e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.242082484901961e-05</v>
+      </c>
+      <c r="F220" t="n">
+        <v>13.85982499606759</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.01652477599442148</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2.771964999213517</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +6102,25 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0003279214821994551</v>
+        <v>0.0003308155948753196</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>0.0001349022775764333</v>
       </c>
       <c r="D221" t="n">
-        <v>0.0001427732471358754</v>
+        <v>6.676696001215858e-06</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.202010087222014e-05</v>
+      </c>
+      <c r="F221" t="n">
+        <v>15.4477904720852</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.008610932678297045</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3.089558094417041</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +6128,25 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0003245089691663144</v>
+        <v>0.0003273924022903559</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>0.0001311948151235748</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0001399480289391615</v>
+        <v>6.542156836436631e-06</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.174298618287867e-05</v>
+      </c>
+      <c r="F222" t="n">
+        <v>15.28558948661685</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.009209278853294811</v>
+      </c>
+      <c r="H222" t="n">
+        <v>3.05711789732337</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +6154,25 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0003325172226770813</v>
+        <v>0.0003355783515374797</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>0.0001431397593337405</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0001506198670045585</v>
+        <v>6.728483997902244e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.2280260762535e-05</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.78446224383947</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.007487159308589009</v>
+      </c>
+      <c r="H223" t="n">
+        <v>3.156892448767894</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +6180,25 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>0.0003490348686970699</v>
+        <v>0.0003524705046918302</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>0.0001353756957003677</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0001430251347797362</v>
+        <v>7.073271332521002e-06</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.270682648772011e-05</v>
+      </c>
+      <c r="F224" t="n">
+        <v>15.62807430524408</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.007990194628414216</v>
+      </c>
+      <c r="H224" t="n">
+        <v>3.125614861048816</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +6206,25 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>0.0003510523351120352</v>
+        <v>0.0003538781777432667</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>0.0001421010168676646</v>
       </c>
       <c r="D225" t="n">
-        <v>0.0001474941124630766</v>
+        <v>7.119772168042273e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>1.294431220874591e-05</v>
+      </c>
+      <c r="F225" t="n">
+        <v>13.75029240627148</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.01727586375551826</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2.750058481254295</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +6232,25 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>0.0003392089021814304</v>
+        <v>0.0003413183445816217</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>0.0001564346582203853</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0001599462333215482</v>
+        <v>6.860505856327431e-06</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.275153507124679e-05</v>
+      </c>
+      <c r="F226" t="n">
+        <v>12.59652922283204</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.02746783511536122</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.519305844566408</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +6258,25 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0003521054135378443</v>
+        <v>0.0003539626002600582</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>0.0001761715888496939</v>
       </c>
       <c r="D227" t="n">
-        <v>0.0001858482225771641</v>
+        <v>7.001837509149661e-06</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.303477518451356e-05</v>
+      </c>
+      <c r="F227" t="n">
+        <v>13.10240057504396</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.02243782964690089</v>
+      </c>
+      <c r="H227" t="n">
+        <v>2.620480115008792</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +6284,25 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0003674272677253584</v>
+        <v>0.0003705427498335294</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>0.0001918281029119378</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0002032934284841367</v>
+        <v>7.360544726531588e-06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.369879551517601e-05</v>
+      </c>
+      <c r="F228" t="n">
+        <v>19.3530423256654</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.001651720057091799</v>
+      </c>
+      <c r="H228" t="n">
+        <v>3.87060846513308</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +6310,25 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>0.0003603720923557545</v>
+        <v>0.0003647792166494813</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>0.0001814253550352823</v>
       </c>
       <c r="D229" t="n">
-        <v>0.0001938628173923572</v>
+        <v>7.400972837886259e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>1.357590451714037e-05</v>
+      </c>
+      <c r="F229" t="n">
+        <v>24.84388819926492</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0001493441641258197</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.968777639852983</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/a1/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/a1/a2/a2Fit.xlsx
@@ -423,7 +423,7 @@
         <v>41.20782318284469</v>
       </c>
       <c r="G2" t="n">
-        <v>8.518067495799642e-08</v>
+        <v>8.518067494358551e-08</v>
       </c>
       <c r="H2" t="n">
         <v>8.241564636568938</v>
@@ -449,7 +449,7 @@
         <v>36.58590502098205</v>
       </c>
       <c r="G3" t="n">
-        <v>7.250431730554396e-07</v>
+        <v>7.250431730470153e-07</v>
       </c>
       <c r="H3" t="n">
         <v>7.317181004196409</v>
@@ -475,7 +475,7 @@
         <v>29.18744325482974</v>
       </c>
       <c r="G4" t="n">
-        <v>2.130453130511079e-05</v>
+        <v>2.130453130509792e-05</v>
       </c>
       <c r="H4" t="n">
         <v>5.837488650965947</v>
@@ -501,7 +501,7 @@
         <v>38.57467498292989</v>
       </c>
       <c r="G5" t="n">
-        <v>2.892055654957204e-07</v>
+        <v>2.892055654410057e-07</v>
       </c>
       <c r="H5" t="n">
         <v>7.714934996585979</v>
@@ -527,7 +527,7 @@
         <v>33.65216446071948</v>
       </c>
       <c r="G6" t="n">
-        <v>2.792392305828173e-06</v>
+        <v>2.792392305879811e-06</v>
       </c>
       <c r="H6" t="n">
         <v>6.730432892143897</v>
@@ -553,7 +553,7 @@
         <v>26.57074454014334</v>
       </c>
       <c r="G7" t="n">
-        <v>6.913817349785134e-05</v>
+        <v>6.913817349786508e-05</v>
       </c>
       <c r="H7" t="n">
         <v>5.314148908028668</v>
@@ -579,7 +579,7 @@
         <v>22.7928969884773</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000369767185382619</v>
+        <v>0.0003697671853826432</v>
       </c>
       <c r="H8" t="n">
         <v>4.558579397695461</v>
@@ -605,7 +605,7 @@
         <v>23.01067412230656</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003359836484079226</v>
+        <v>0.0003359836484079599</v>
       </c>
       <c r="H9" t="n">
         <v>4.602134824461312</v>
@@ -631,7 +631,7 @@
         <v>14.94252567726641</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0106107604922776</v>
+        <v>0.01061076049227758</v>
       </c>
       <c r="H10" t="n">
         <v>2.988505135453282</v>
@@ -657,7 +657,7 @@
         <v>15.63672421413517</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007961532618218192</v>
+        <v>0.007961532618218201</v>
       </c>
       <c r="H11" t="n">
         <v>3.127344842827033</v>
@@ -735,7 +735,7 @@
         <v>20.42821737819951</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001038339662373211</v>
+        <v>0.001038339662373203</v>
       </c>
       <c r="H14" t="n">
         <v>4.085643475639903</v>
@@ -761,7 +761,7 @@
         <v>127.6620596868343</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7.457833749786052e-26</v>
       </c>
       <c r="H15" t="n">
         <v>25.53241193736686</v>
@@ -787,7 +787,7 @@
         <v>75.66346362733886</v>
       </c>
       <c r="G16" t="n">
-        <v>6.772360450213455e-15</v>
+        <v>6.762988895388125e-15</v>
       </c>
       <c r="H16" t="n">
         <v>15.13269272546777</v>
@@ -813,7 +813,7 @@
         <v>64.5293934298326</v>
       </c>
       <c r="G17" t="n">
-        <v>1.403099858521273e-12</v>
+        <v>1.403153420853522e-12</v>
       </c>
       <c r="H17" t="n">
         <v>12.90587868596652</v>
@@ -839,7 +839,7 @@
         <v>64.12054181780593</v>
       </c>
       <c r="G18" t="n">
-        <v>1.705635632731628e-12</v>
+        <v>1.705580484137577e-12</v>
       </c>
       <c r="H18" t="n">
         <v>12.82410836356119</v>
@@ -865,7 +865,7 @@
         <v>86.06245434652784</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.506754031220681e-17</v>
       </c>
       <c r="H19" t="n">
         <v>17.21249086930557</v>
@@ -891,7 +891,7 @@
         <v>81.64973883373048</v>
       </c>
       <c r="G20" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>3.789592868787197e-16</v>
       </c>
       <c r="H20" t="n">
         <v>16.32994776674609</v>
@@ -917,7 +917,7 @@
         <v>90.70170065387208</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.785216428415183e-18</v>
       </c>
       <c r="H21" t="n">
         <v>18.14034013077442</v>
@@ -943,7 +943,7 @@
         <v>117.4421752310857</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.092336516353156e-23</v>
       </c>
       <c r="H22" t="n">
         <v>23.48843504621713</v>
@@ -969,7 +969,7 @@
         <v>219.4400939946896</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.958418363710421e-45</v>
       </c>
       <c r="H23" t="n">
         <v>43.88801879893792</v>
@@ -995,7 +995,7 @@
         <v>252.2294214113872</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.827025576231722e-52</v>
       </c>
       <c r="H24" t="n">
         <v>50.44588428227745</v>
@@ -1021,7 +1021,7 @@
         <v>323.7124160809826</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.958264920914366e-68</v>
       </c>
       <c r="H25" t="n">
         <v>64.74248321619652</v>
@@ -1047,7 +1047,7 @@
         <v>363.4060041027957</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.271831198590833e-76</v>
       </c>
       <c r="H26" t="n">
         <v>72.68120082055914</v>
@@ -1073,7 +1073,7 @@
         <v>340.943712443535</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.558375548875346e-71</v>
       </c>
       <c r="H27" t="n">
         <v>68.18874248870701</v>
@@ -1099,7 +1099,7 @@
         <v>297.9318274213178</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2.787953631959701e-62</v>
       </c>
       <c r="H28" t="n">
         <v>59.58636548426356</v>
@@ -1125,7 +1125,7 @@
         <v>280.7157041421111</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.397047561005259e-58</v>
       </c>
       <c r="H29" t="n">
         <v>56.14314082842221</v>
@@ -1151,7 +1151,7 @@
         <v>329.1072129264182</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5.496097585094836e-69</v>
       </c>
       <c r="H30" t="n">
         <v>65.82144258528363</v>
@@ -1177,7 +1177,7 @@
         <v>308.1212446798893</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.796572230393992e-64</v>
       </c>
       <c r="H31" t="n">
         <v>61.62424893597786</v>
@@ -1203,7 +1203,7 @@
         <v>366.3509833566737</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.27364745766788e-77</v>
       </c>
       <c r="H32" t="n">
         <v>73.27019667133474</v>
@@ -1229,7 +1229,7 @@
         <v>316.9872449138724</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.226278653856596e-66</v>
       </c>
       <c r="H33" t="n">
         <v>63.39744898277448</v>
@@ -1255,7 +1255,7 @@
         <v>380.9440110946807</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.789528677706622e-80</v>
       </c>
       <c r="H34" t="n">
         <v>76.18880221893615</v>
@@ -1281,7 +1281,7 @@
         <v>294.7097351618289</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.373782601351041e-61</v>
       </c>
       <c r="H35" t="n">
         <v>58.94194703236577</v>
@@ -1307,7 +1307,7 @@
         <v>301.3854270017354</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>5.044335990872284e-63</v>
       </c>
       <c r="H36" t="n">
         <v>60.27708540034708</v>
@@ -1333,7 +1333,7 @@
         <v>315.7279124354858</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.153968735907038e-66</v>
       </c>
       <c r="H37" t="n">
         <v>63.14558248709717</v>
@@ -1359,7 +1359,7 @@
         <v>321.4856195884705</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.398237495571764e-67</v>
       </c>
       <c r="H38" t="n">
         <v>64.29712391769409</v>
@@ -1385,7 +1385,7 @@
         <v>262.109364995291</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.384134799828603e-54</v>
       </c>
       <c r="H39" t="n">
         <v>52.4218729990582</v>
@@ -1411,7 +1411,7 @@
         <v>238.7746070560181</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.406043981151489e-49</v>
       </c>
       <c r="H40" t="n">
         <v>47.75492141120363</v>
@@ -1437,7 +1437,7 @@
         <v>314.0909530979762</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>9.344574677531912e-66</v>
       </c>
       <c r="H41" t="n">
         <v>62.81819061959525</v>
@@ -1463,7 +1463,7 @@
         <v>134.5341331900298</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.59417700055444e-27</v>
       </c>
       <c r="H42" t="n">
         <v>26.90682663800597</v>
@@ -1489,7 +1489,7 @@
         <v>84.24055450188941</v>
       </c>
       <c r="G43" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.086098114394257e-16</v>
       </c>
       <c r="H43" t="n">
         <v>16.84811090037788</v>
@@ -1515,7 +1515,7 @@
         <v>78.28963356079133</v>
       </c>
       <c r="G44" t="n">
-        <v>1.887379141862766e-15</v>
+        <v>1.912186884172765e-15</v>
       </c>
       <c r="H44" t="n">
         <v>15.65792671215827</v>
@@ -1541,7 +1541,7 @@
         <v>53.86330368593125</v>
       </c>
       <c r="G45" t="n">
-        <v>2.235873708400504e-10</v>
+        <v>2.235873831505433e-10</v>
       </c>
       <c r="H45" t="n">
         <v>10.77266073718625</v>
@@ -1567,7 +1567,7 @@
         <v>41.73111225737905</v>
       </c>
       <c r="G46" t="n">
-        <v>6.67643125229489e-08</v>
+        <v>6.676431255921708e-08</v>
       </c>
       <c r="H46" t="n">
         <v>8.346222451475809</v>
@@ -1593,7 +1593,7 @@
         <v>44.41590172604949</v>
       </c>
       <c r="G47" t="n">
-        <v>1.906894619985167e-08</v>
+        <v>1.906894623280056e-08</v>
       </c>
       <c r="H47" t="n">
         <v>8.883180345209897</v>
@@ -1619,7 +1619,7 @@
         <v>38.04363484063779</v>
       </c>
       <c r="G48" t="n">
-        <v>3.697843532490808e-07</v>
+        <v>3.697843532658922e-07</v>
       </c>
       <c r="H48" t="n">
         <v>7.608726968127558</v>
@@ -1645,7 +1645,7 @@
         <v>35.78504042868255</v>
       </c>
       <c r="G49" t="n">
-        <v>1.048635339451209e-06</v>
+        <v>1.04863533947865e-06</v>
       </c>
       <c r="H49" t="n">
         <v>7.15700808573651</v>
@@ -1671,7 +1671,7 @@
         <v>46.76594563191647</v>
       </c>
       <c r="G50" t="n">
-        <v>6.341150493582859e-09</v>
+        <v>6.341150438126911e-09</v>
       </c>
       <c r="H50" t="n">
         <v>9.353189126383295</v>
@@ -1697,7 +1697,7 @@
         <v>21.04587154471368</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0007940527418888177</v>
+        <v>0.0007940527418888204</v>
       </c>
       <c r="H51" t="n">
         <v>4.209174308942737</v>
@@ -1723,7 +1723,7 @@
         <v>32.42014457421985</v>
       </c>
       <c r="G52" t="n">
-        <v>4.904928586513257e-06</v>
+        <v>4.904928586551867e-06</v>
       </c>
       <c r="H52" t="n">
         <v>6.48402891484397</v>
@@ -1749,7 +1749,7 @@
         <v>26.83214589420717</v>
       </c>
       <c r="G53" t="n">
-        <v>6.149991117454512e-05</v>
+        <v>6.149991117449731e-05</v>
       </c>
       <c r="H53" t="n">
         <v>5.366429178841433</v>
@@ -1775,7 +1775,7 @@
         <v>35.91374328183898</v>
       </c>
       <c r="G54" t="n">
-        <v>9.883008404987237e-07</v>
+        <v>9.883008404764618e-07</v>
       </c>
       <c r="H54" t="n">
         <v>7.182748656367797</v>
@@ -1879,7 +1879,7 @@
         <v>11.74047730028021</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03852218118515849</v>
+        <v>0.03852218118515846</v>
       </c>
       <c r="H58" t="n">
         <v>2.348095460056042</v>
@@ -1905,7 +1905,7 @@
         <v>17.44075427714972</v>
       </c>
       <c r="G59" t="n">
-        <v>0.003735480410527181</v>
+        <v>0.003735480410527159</v>
       </c>
       <c r="H59" t="n">
         <v>3.488150855429944</v>
@@ -1931,7 +1931,7 @@
         <v>34.7250341931794</v>
       </c>
       <c r="G60" t="n">
-        <v>1.707227686220669e-06</v>
+        <v>1.707227686238478e-06</v>
       </c>
       <c r="H60" t="n">
         <v>6.945006838635879</v>
@@ -1957,7 +1957,7 @@
         <v>28.16013037162105</v>
       </c>
       <c r="G61" t="n">
-        <v>3.386688957263129e-05</v>
+        <v>3.38668895726271e-05</v>
       </c>
       <c r="H61" t="n">
         <v>5.632026074324211</v>
@@ -1983,7 +1983,7 @@
         <v>40.69497992625362</v>
       </c>
       <c r="G62" t="n">
-        <v>1.081268281577508e-07</v>
+        <v>1.081268281752246e-07</v>
       </c>
       <c r="H62" t="n">
         <v>8.138995985250723</v>
@@ -2009,7 +2009,7 @@
         <v>55.77524330654018</v>
       </c>
       <c r="G63" t="n">
-        <v>9.040335147147971e-11</v>
+        <v>9.040329737835129e-11</v>
       </c>
       <c r="H63" t="n">
         <v>11.15504866130803</v>
@@ -2035,7 +2035,7 @@
         <v>76.24778441289052</v>
       </c>
       <c r="G64" t="n">
-        <v>5.10702591327572e-15</v>
+        <v>5.106653394920086e-15</v>
       </c>
       <c r="H64" t="n">
         <v>15.2495568825781</v>
@@ -2061,7 +2061,7 @@
         <v>82.56637719537575</v>
       </c>
       <c r="G65" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.435817710650512e-16</v>
       </c>
       <c r="H65" t="n">
         <v>16.51327543907515</v>
@@ -2087,7 +2087,7 @@
         <v>113.0822397594902</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>9.13868712917621e-23</v>
       </c>
       <c r="H66" t="n">
         <v>22.61644795189805</v>
@@ -2113,7 +2113,7 @@
         <v>87.84972716742845</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1.900413852522653e-17</v>
       </c>
       <c r="H67" t="n">
         <v>17.56994543348569</v>
@@ -2139,7 +2139,7 @@
         <v>74.24175104483876</v>
       </c>
       <c r="G68" t="n">
-        <v>1.343369859796439e-14</v>
+        <v>1.339145647257469e-14</v>
       </c>
       <c r="H68" t="n">
         <v>14.84835020896775</v>
@@ -2165,7 +2165,7 @@
         <v>46.46347306996344</v>
       </c>
       <c r="G69" t="n">
-        <v>7.308013305618033e-09</v>
+        <v>7.308013280447972e-09</v>
       </c>
       <c r="H69" t="n">
         <v>9.292694613992689</v>
@@ -2191,7 +2191,7 @@
         <v>65.68929530077219</v>
       </c>
       <c r="G70" t="n">
-        <v>8.062439604827887e-13</v>
+        <v>8.062883457024009e-13</v>
       </c>
       <c r="H70" t="n">
         <v>13.13785906015444</v>
@@ -2217,7 +2217,7 @@
         <v>42.35700382241065</v>
       </c>
       <c r="G71" t="n">
-        <v>4.987488810836993e-08</v>
+        <v>4.987488807229593e-08</v>
       </c>
       <c r="H71" t="n">
         <v>8.47140076448213</v>
@@ -2243,7 +2243,7 @@
         <v>9.423480536118705</v>
       </c>
       <c r="G72" t="n">
-        <v>0.09331917444609461</v>
+        <v>0.09331917444609465</v>
       </c>
       <c r="H72" t="n">
         <v>1.884696107223741</v>
@@ -2269,7 +2269,7 @@
         <v>31.98620283603001</v>
       </c>
       <c r="G73" t="n">
-        <v>5.978753101154588e-06</v>
+        <v>5.978753101209294e-06</v>
       </c>
       <c r="H73" t="n">
         <v>6.397240567206002</v>
@@ -2347,7 +2347,7 @@
         <v>6.512057015524832</v>
       </c>
       <c r="G76" t="n">
-        <v>0.259529879566778</v>
+        <v>0.2595298795667779</v>
       </c>
       <c r="H76" t="n">
         <v>1.302411403104966</v>
@@ -2373,7 +2373,7 @@
         <v>54.12578990211437</v>
       </c>
       <c r="G77" t="n">
-        <v>1.974699292972559e-10</v>
+        <v>1.974699409492715e-10</v>
       </c>
       <c r="H77" t="n">
         <v>10.82515798042287</v>
@@ -2399,7 +2399,7 @@
         <v>289.2655719454757</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>2.032541155034073e-60</v>
       </c>
       <c r="H78" t="n">
         <v>57.85311438909514</v>
@@ -2425,7 +2425,7 @@
         <v>776.9624058269339</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1.113914554402405e-165</v>
       </c>
       <c r="H79" t="n">
         <v>155.3924811653868</v>
@@ -2451,7 +2451,7 @@
         <v>603.0681138234401</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>4.394909756268471e-128</v>
       </c>
       <c r="H80" t="n">
         <v>120.613622764688</v>
@@ -2477,7 +2477,7 @@
         <v>671.5819930443275</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>6.842724921916251e-143</v>
       </c>
       <c r="H81" t="n">
         <v>134.3163986088655</v>
@@ -2503,7 +2503,7 @@
         <v>384.0288674305682</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>8.202454622250087e-81</v>
       </c>
       <c r="H82" t="n">
         <v>76.80577348611364</v>
@@ -2529,7 +2529,7 @@
         <v>189.9061011499163</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>4.091510815444203e-39</v>
       </c>
       <c r="H83" t="n">
         <v>37.98122022998326</v>
@@ -2555,7 +2555,7 @@
         <v>338.793226168603</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>4.524249219498432e-71</v>
       </c>
       <c r="H84" t="n">
         <v>67.75864523372061</v>
@@ -2581,7 +2581,7 @@
         <v>444.4391859780384</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>7.775396162182329e-94</v>
       </c>
       <c r="H85" t="n">
         <v>88.88783719560767</v>
@@ -2607,7 +2607,7 @@
         <v>260.1538647399486</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>3.63888815716e-54</v>
       </c>
       <c r="H86" t="n">
         <v>52.03077294798972</v>
@@ -2633,7 +2633,7 @@
         <v>215.8401851782084</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1.155949313145163e-44</v>
       </c>
       <c r="H87" t="n">
         <v>43.16803703564167</v>
@@ -2659,7 +2659,7 @@
         <v>135.427356722294</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1.676046499460145e-27</v>
       </c>
       <c r="H88" t="n">
         <v>27.08547134445881</v>
@@ -2685,7 +2685,7 @@
         <v>149.0161674054221</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>2.162383924993419e-30</v>
       </c>
       <c r="H89" t="n">
         <v>29.80323348108442</v>
@@ -2711,7 +2711,7 @@
         <v>267.859186930338</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>8.065849905021697e-56</v>
       </c>
       <c r="H90" t="n">
         <v>53.57183738606759</v>
@@ -2737,7 +2737,7 @@
         <v>454.7061701150874</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>4.743369532838553e-96</v>
       </c>
       <c r="H91" t="n">
         <v>90.94123402301747</v>
@@ -2763,7 +2763,7 @@
         <v>413.5632385432091</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>3.537219801267051e-87</v>
       </c>
       <c r="H92" t="n">
         <v>82.71264770864182</v>
@@ -2789,7 +2789,7 @@
         <v>323.2700027362609</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>9.908360399084473e-68</v>
       </c>
       <c r="H93" t="n">
         <v>64.6540005472522</v>
@@ -2815,7 +2815,7 @@
         <v>189.3067486398052</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>5.495330547626452e-39</v>
       </c>
       <c r="H94" t="n">
         <v>37.86134972796103</v>
@@ -2841,7 +2841,7 @@
         <v>75.30219315748974</v>
       </c>
       <c r="G95" t="n">
-        <v>7.993605777301127e-15</v>
+        <v>8.045464998669733e-15</v>
       </c>
       <c r="H95" t="n">
         <v>15.06043863149795</v>
@@ -2867,7 +2867,7 @@
         <v>36.27898524699692</v>
       </c>
       <c r="G96" t="n">
-        <v>8.352473584993803e-07</v>
+        <v>8.352473584831864e-07</v>
       </c>
       <c r="H96" t="n">
         <v>7.255797049399384</v>
@@ -2893,7 +2893,7 @@
         <v>31.79832396831718</v>
       </c>
       <c r="G97" t="n">
-        <v>6.513327135970748e-06</v>
+        <v>6.513327135954631e-06</v>
       </c>
       <c r="H97" t="n">
         <v>6.359664793663436</v>
@@ -2919,7 +2919,7 @@
         <v>25.18575941991794</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0001282844767594993</v>
+        <v>0.0001282844767594708</v>
       </c>
       <c r="H98" t="n">
         <v>5.037151883983588</v>
@@ -2945,7 +2945,7 @@
         <v>27.12808179418866</v>
       </c>
       <c r="G99" t="n">
-        <v>5.385795539314397e-05</v>
+        <v>5.385795539316896e-05</v>
       </c>
       <c r="H99" t="n">
         <v>5.425616358837731</v>
@@ -2971,7 +2971,7 @@
         <v>19.00366474444525</v>
       </c>
       <c r="G100" t="n">
-        <v>0.001919118049036883</v>
+        <v>0.001919118049036889</v>
       </c>
       <c r="H100" t="n">
         <v>3.80073294888905</v>
@@ -2997,7 +2997,7 @@
         <v>17.40619896035914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.003790504090773195</v>
+        <v>0.003790504090773196</v>
       </c>
       <c r="H101" t="n">
         <v>3.481239792071828</v>
@@ -3049,7 +3049,7 @@
         <v>28.42328770222231</v>
       </c>
       <c r="G103" t="n">
-        <v>3.008007107407895e-05</v>
+        <v>3.008007107405238e-05</v>
       </c>
       <c r="H103" t="n">
         <v>5.684657540444461</v>
@@ -3075,7 +3075,7 @@
         <v>34.55530424416565</v>
       </c>
       <c r="G104" t="n">
-        <v>1.845586936388699e-06</v>
+        <v>1.84558693636373e-06</v>
       </c>
       <c r="H104" t="n">
         <v>6.911060848833129</v>
@@ -3101,7 +3101,7 @@
         <v>37.543934994037</v>
       </c>
       <c r="G105" t="n">
-        <v>4.658934981138785e-07</v>
+        <v>4.65893498079042e-07</v>
       </c>
       <c r="H105" t="n">
         <v>7.508786998807399</v>
@@ -3127,7 +3127,7 @@
         <v>27.82352847316561</v>
       </c>
       <c r="G106" t="n">
-        <v>3.940687146664068e-05</v>
+        <v>3.940687146664942e-05</v>
       </c>
       <c r="H106" t="n">
         <v>5.564705694633123</v>
@@ -3153,7 +3153,7 @@
         <v>33.81599885309958</v>
       </c>
       <c r="G107" t="n">
-        <v>2.590493099030589e-06</v>
+        <v>2.590493099072486e-06</v>
       </c>
       <c r="H107" t="n">
         <v>6.763199770619916</v>
@@ -3179,7 +3179,7 @@
         <v>26.0216213744474</v>
       </c>
       <c r="G108" t="n">
-        <v>8.837849386178487e-05</v>
+        <v>8.837849386178618e-05</v>
       </c>
       <c r="H108" t="n">
         <v>5.20432427488948</v>
@@ -3205,7 +3205,7 @@
         <v>38.53345455279039</v>
       </c>
       <c r="G109" t="n">
-        <v>2.947787612894714e-07</v>
+        <v>2.947787612711822e-07</v>
       </c>
       <c r="H109" t="n">
         <v>7.706690910558078</v>
@@ -3231,7 +3231,7 @@
         <v>49.18726266315912</v>
       </c>
       <c r="G110" t="n">
-        <v>2.03202388249224e-09</v>
+        <v>2.032023866821878e-09</v>
       </c>
       <c r="H110" t="n">
         <v>9.837452532631824</v>
@@ -3257,7 +3257,7 @@
         <v>56.32495676439551</v>
       </c>
       <c r="G111" t="n">
-        <v>6.96596114124759e-11</v>
+        <v>6.965958343150715e-11</v>
       </c>
       <c r="H111" t="n">
         <v>11.2649913528791</v>
@@ -3283,7 +3283,7 @@
         <v>74.97979547755834</v>
       </c>
       <c r="G112" t="n">
-        <v>9.436895709313831e-15</v>
+        <v>9.393711676181691e-15</v>
       </c>
       <c r="H112" t="n">
         <v>14.99595909551167</v>
@@ -3309,7 +3309,7 @@
         <v>73.20241601138405</v>
       </c>
       <c r="G113" t="n">
-        <v>2.209343819004062e-14</v>
+        <v>2.20586040412312e-14</v>
       </c>
       <c r="H113" t="n">
         <v>14.64048320227681</v>
@@ -3335,7 +3335,7 @@
         <v>80.46067216022436</v>
       </c>
       <c r="G114" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>6.721577284286595e-16</v>
       </c>
       <c r="H114" t="n">
         <v>16.09213443204487</v>
@@ -3361,7 +3361,7 @@
         <v>78.82909793562931</v>
       </c>
       <c r="G115" t="n">
-        <v>1.443289932012704e-15</v>
+        <v>1.474851147663584e-15</v>
       </c>
       <c r="H115" t="n">
         <v>15.76581958712586</v>
@@ -3387,7 +3387,7 @@
         <v>84.35327535035709</v>
       </c>
       <c r="G116" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>1.028591010507248e-16</v>
       </c>
       <c r="H116" t="n">
         <v>16.87065507007142</v>
@@ -3413,7 +3413,7 @@
         <v>101.3103478794464</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2.797903111739365e-20</v>
       </c>
       <c r="H117" t="n">
         <v>20.26206957588929</v>
@@ -3439,7 +3439,7 @@
         <v>61.99070366153077</v>
       </c>
       <c r="G118" t="n">
-        <v>4.710232204274689e-12</v>
+        <v>4.710221774280071e-12</v>
       </c>
       <c r="H118" t="n">
         <v>12.39814073230615</v>
@@ -3465,7 +3465,7 @@
         <v>86.02350624064209</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>4.592331400744656e-17</v>
       </c>
       <c r="H119" t="n">
         <v>17.20470124812842</v>
@@ -3491,7 +3491,7 @@
         <v>94.12082347352268</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>9.141930758679889e-19</v>
       </c>
       <c r="H120" t="n">
         <v>18.82416469470454</v>
@@ -3517,7 +3517,7 @@
         <v>92.45306845587743</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>2.050155002513823e-18</v>
       </c>
       <c r="H121" t="n">
         <v>18.49061369117549</v>
@@ -3543,7 +3543,7 @@
         <v>73.01214070042263</v>
       </c>
       <c r="G122" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>2.416829486123613e-14</v>
       </c>
       <c r="H122" t="n">
         <v>14.60242814008453</v>
@@ -3569,7 +3569,7 @@
         <v>86.96206963874113</v>
       </c>
       <c r="G123" t="n">
-        <v>0</v>
+        <v>2.918329628195359e-17</v>
       </c>
       <c r="H123" t="n">
         <v>17.39241392774823</v>
@@ -3595,7 +3595,7 @@
         <v>113.4785953123269</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>7.534522608690311e-23</v>
       </c>
       <c r="H124" t="n">
         <v>22.69571906246538</v>
@@ -3621,7 +3621,7 @@
         <v>57.97150518463064</v>
       </c>
       <c r="G125" t="n">
-        <v>3.188327379888278e-11</v>
+        <v>3.188328110821001e-11</v>
       </c>
       <c r="H125" t="n">
         <v>11.59430103692613</v>
@@ -3647,7 +3647,7 @@
         <v>99.71554763296234</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>6.06745175725198e-20</v>
       </c>
       <c r="H126" t="n">
         <v>19.94310952659247</v>
@@ -3673,7 +3673,7 @@
         <v>97.97432546239766</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1.412088202178967e-19</v>
       </c>
       <c r="H127" t="n">
         <v>19.59486509247953</v>
@@ -3699,7 +3699,7 @@
         <v>103.4682570521075</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>9.810996408982531e-21</v>
       </c>
       <c r="H128" t="n">
         <v>20.69365141042151</v>
@@ -3725,7 +3725,7 @@
         <v>110.4370644819109</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>3.312305862465145e-22</v>
       </c>
       <c r="H129" t="n">
         <v>22.08741289638217</v>
@@ -3751,7 +3751,7 @@
         <v>69.70561030046818</v>
       </c>
       <c r="G130" t="n">
-        <v>1.180167075176541e-13</v>
+        <v>1.18003016618893e-13</v>
       </c>
       <c r="H130" t="n">
         <v>13.94112206009364</v>
@@ -3777,7 +3777,7 @@
         <v>49.46870290778743</v>
       </c>
       <c r="G131" t="n">
-        <v>1.779853042727098e-09</v>
+        <v>1.779853051650286e-09</v>
       </c>
       <c r="H131" t="n">
         <v>9.893740581557486</v>
@@ -3803,7 +3803,7 @@
         <v>46.94642733735538</v>
       </c>
       <c r="G132" t="n">
-        <v>5.826147786436309e-09</v>
+        <v>5.826147776351125e-09</v>
       </c>
       <c r="H132" t="n">
         <v>9.389285467471076</v>
@@ -3829,7 +3829,7 @@
         <v>60.24848298284029</v>
       </c>
       <c r="G133" t="n">
-        <v>1.079902833822644e-11</v>
+        <v>1.079907335694312e-11</v>
       </c>
       <c r="H133" t="n">
         <v>12.04969659656806</v>
@@ -3855,7 +3855,7 @@
         <v>47.89416589161511</v>
       </c>
       <c r="G134" t="n">
-        <v>3.733067188704808e-09</v>
+        <v>3.733067148167746e-09</v>
       </c>
       <c r="H134" t="n">
         <v>9.578833178323022</v>
@@ -3881,7 +3881,7 @@
         <v>52.27139899419051</v>
       </c>
       <c r="G135" t="n">
-        <v>4.745738246825226e-10</v>
+        <v>4.745738642428007e-10</v>
       </c>
       <c r="H135" t="n">
         <v>10.4542797988381</v>
@@ -3907,7 +3907,7 @@
         <v>42.58958612167879</v>
       </c>
       <c r="G136" t="n">
-        <v>4.474874037985188e-08</v>
+        <v>4.474874033970326e-08</v>
       </c>
       <c r="H136" t="n">
         <v>8.517917224335758</v>
@@ -3933,7 +3933,7 @@
         <v>38.99037797045689</v>
       </c>
       <c r="G137" t="n">
-        <v>2.385450439401637e-07</v>
+        <v>2.38545043896208e-07</v>
       </c>
       <c r="H137" t="n">
         <v>7.798075594091378</v>
@@ -3959,7 +3959,7 @@
         <v>31.92528438362575</v>
       </c>
       <c r="G138" t="n">
-        <v>6.147126389244306e-06</v>
+        <v>6.147126389260075e-06</v>
       </c>
       <c r="H138" t="n">
         <v>6.38505687672515</v>
@@ -3985,7 +3985,7 @@
         <v>66.54833378930395</v>
       </c>
       <c r="G139" t="n">
-        <v>5.347944309619379e-13</v>
+        <v>5.347667772580256e-13</v>
       </c>
       <c r="H139" t="n">
         <v>13.30966675786079</v>
@@ -4011,7 +4011,7 @@
         <v>94.58558236416573</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>7.298916185897213e-19</v>
       </c>
       <c r="H140" t="n">
         <v>18.91711647283315</v>
@@ -4037,7 +4037,7 @@
         <v>70.62455594744655</v>
       </c>
       <c r="G141" t="n">
-        <v>7.593925488436071e-14</v>
+        <v>7.59694504051812e-14</v>
       </c>
       <c r="H141" t="n">
         <v>14.12491118948931</v>
@@ -4063,7 +4063,7 @@
         <v>117.1170998846176</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1.27988375012602e-23</v>
       </c>
       <c r="H142" t="n">
         <v>23.42341997692353</v>
@@ -4089,7 +4089,7 @@
         <v>154.9032934549068</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>1.206342028265817e-31</v>
       </c>
       <c r="H143" t="n">
         <v>30.98065869098136</v>
@@ -4115,7 +4115,7 @@
         <v>158.5783022639156</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>1.988535959062474e-32</v>
       </c>
       <c r="H144" t="n">
         <v>31.71566045278313</v>
@@ -4141,7 +4141,7 @@
         <v>227.7594509019073</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>3.231504943657471e-47</v>
       </c>
       <c r="H145" t="n">
         <v>45.55189018038145</v>
@@ -4167,7 +4167,7 @@
         <v>228.9572249446094</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>1.789363692300693e-47</v>
       </c>
       <c r="H146" t="n">
         <v>45.79144498892187</v>
@@ -4193,7 +4193,7 @@
         <v>225.4974478141704</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>9.866145504302237e-47</v>
       </c>
       <c r="H147" t="n">
         <v>45.09948956283409</v>
@@ -4219,7 +4219,7 @@
         <v>207.6672164855281</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>6.497799067288135e-43</v>
       </c>
       <c r="H148" t="n">
         <v>41.53344329710562</v>
@@ -4245,7 +4245,7 @@
         <v>208.5496352577641</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>4.206174615333435e-43</v>
       </c>
       <c r="H149" t="n">
         <v>41.70992705155282</v>
@@ -4271,7 +4271,7 @@
         <v>208.1546545778521</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>5.110143522961141e-43</v>
       </c>
       <c r="H150" t="n">
         <v>41.63093091557042</v>
@@ -4297,7 +4297,7 @@
         <v>112.8900126226621</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1.003544238958012e-22</v>
       </c>
       <c r="H151" t="n">
         <v>22.57800252453242</v>
@@ -4323,7 +4323,7 @@
         <v>86.46150128046057</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3.716690928029893e-17</v>
       </c>
       <c r="H152" t="n">
         <v>17.29230025609211</v>
@@ -4349,7 +4349,7 @@
         <v>86.30420625225325</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>4.010084747998136e-17</v>
       </c>
       <c r="H153" t="n">
         <v>17.26084125045065</v>
@@ -4375,7 +4375,7 @@
         <v>88.13628282402661</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>1.654616048957682e-17</v>
       </c>
       <c r="H154" t="n">
         <v>17.62725656480532</v>
@@ -4401,7 +4401,7 @@
         <v>82.84241169380041</v>
       </c>
       <c r="G155" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>2.132195330363102e-16</v>
       </c>
       <c r="H155" t="n">
         <v>16.56848233876008</v>
@@ -4427,7 +4427,7 @@
         <v>76.07896222165536</v>
       </c>
       <c r="G156" t="n">
-        <v>5.551115123125783e-15</v>
+        <v>5.538460775608691e-15</v>
       </c>
       <c r="H156" t="n">
         <v>15.21579244433107</v>
@@ -4453,7 +4453,7 @@
         <v>73.72140343802776</v>
       </c>
       <c r="G157" t="n">
-        <v>1.720845688168993e-14</v>
+        <v>1.719333304719509e-14</v>
       </c>
       <c r="H157" t="n">
         <v>14.74428068760555</v>
@@ -4479,7 +4479,7 @@
         <v>44.36770271565215</v>
       </c>
       <c r="G158" t="n">
-        <v>1.950368944125813e-08</v>
+        <v>1.950368946512145e-08</v>
       </c>
       <c r="H158" t="n">
         <v>8.87354054313043</v>
@@ -4505,7 +4505,7 @@
         <v>25.83658782649544</v>
       </c>
       <c r="G159" t="n">
-        <v>9.598888139861206e-05</v>
+        <v>9.598888139861036e-05</v>
       </c>
       <c r="H159" t="n">
         <v>5.167317565299088</v>
@@ -4531,7 +4531,7 @@
         <v>14.69427713716176</v>
       </c>
       <c r="G160" t="n">
-        <v>0.01175172534798563</v>
+        <v>0.01175172534798558</v>
       </c>
       <c r="H160" t="n">
         <v>2.938855427432351</v>
@@ -4557,7 +4557,7 @@
         <v>19.38432244213479</v>
       </c>
       <c r="G161" t="n">
-        <v>0.001629647409025603</v>
+        <v>0.001629647409025616</v>
       </c>
       <c r="H161" t="n">
         <v>3.876864488426958</v>
@@ -4583,7 +4583,7 @@
         <v>21.38362357680873</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0006854118893073746</v>
+        <v>0.0006854118893073609</v>
       </c>
       <c r="H162" t="n">
         <v>4.276724715361746</v>
@@ -4609,7 +4609,7 @@
         <v>40.0787137764683</v>
       </c>
       <c r="G163" t="n">
-        <v>1.439768713140666e-07</v>
+        <v>1.439768712881246e-07</v>
       </c>
       <c r="H163" t="n">
         <v>8.01574275529366</v>
@@ -4635,7 +4635,7 @@
         <v>62.88579792845785</v>
       </c>
       <c r="G164" t="n">
-        <v>3.074096532884596e-12</v>
+        <v>3.074106838270879e-12</v>
       </c>
       <c r="H164" t="n">
         <v>12.57715958569157</v>
@@ -4661,7 +4661,7 @@
         <v>79.89573427662648</v>
       </c>
       <c r="G165" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>8.824067586342025e-16</v>
       </c>
       <c r="H165" t="n">
         <v>15.9791468553253</v>
@@ -4687,7 +4687,7 @@
         <v>107.0999474035169</v>
       </c>
       <c r="G166" t="n">
-        <v>0</v>
+        <v>1.679391443219986e-21</v>
       </c>
       <c r="H166" t="n">
         <v>21.41998948070337</v>
@@ -4713,7 +4713,7 @@
         <v>85.17719187899118</v>
       </c>
       <c r="G167" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>6.910603716235271e-17</v>
       </c>
       <c r="H167" t="n">
         <v>17.03543837579824</v>
@@ -4739,7 +4739,7 @@
         <v>120.7497727694195</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>2.177272833380266e-24</v>
       </c>
       <c r="H168" t="n">
         <v>24.1499545538839</v>
@@ -4765,7 +4765,7 @@
         <v>154.175460299965</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>1.723807509103517e-31</v>
       </c>
       <c r="H169" t="n">
         <v>30.83509205999299</v>
@@ -4791,7 +4791,7 @@
         <v>163.0277336535491</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>2.239522722433902e-33</v>
       </c>
       <c r="H170" t="n">
         <v>32.60554673070983</v>
@@ -4817,7 +4817,7 @@
         <v>134.4907915081662</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>2.649746489548828e-27</v>
       </c>
       <c r="H171" t="n">
         <v>26.89815830163324</v>
@@ -4843,7 +4843,7 @@
         <v>192.7522832950477</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>1.007936695495652e-39</v>
       </c>
       <c r="H172" t="n">
         <v>38.55045665900953</v>
@@ -4869,7 +4869,7 @@
         <v>256.5492679667732</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>2.161114556467865e-53</v>
       </c>
       <c r="H173" t="n">
         <v>51.30985359335464</v>
@@ -4895,7 +4895,7 @@
         <v>373.3060496161779</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>1.675031837809333e-78</v>
       </c>
       <c r="H174" t="n">
         <v>74.66120992323557</v>
@@ -4921,7 +4921,7 @@
         <v>550.5476622725588</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>9.737998017781863e-117</v>
       </c>
       <c r="H175" t="n">
         <v>110.1095324545118</v>
@@ -4947,7 +4947,7 @@
         <v>534.0595044497582</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>3.540728906063239e-113</v>
       </c>
       <c r="H176" t="n">
         <v>106.8119008899516</v>
@@ -4973,7 +4973,7 @@
         <v>635.6102127736999</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>4.079897759311703e-135</v>
       </c>
       <c r="H177" t="n">
         <v>127.12204255474</v>
@@ -4999,7 +4999,7 @@
         <v>667.1749663215619</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>6.136583104088762e-142</v>
       </c>
       <c r="H178" t="n">
         <v>133.4349932643124</v>
@@ -5025,7 +5025,7 @@
         <v>594.80007722954</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2.687622396744761e-126</v>
       </c>
       <c r="H179" t="n">
         <v>118.960015445908</v>
@@ -5051,7 +5051,7 @@
         <v>553.56336629058</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2.173519966438861e-117</v>
       </c>
       <c r="H180" t="n">
         <v>110.712673258116</v>
@@ -5077,7 +5077,7 @@
         <v>471.9120537636265</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>9.203815179632184e-100</v>
       </c>
       <c r="H181" t="n">
         <v>94.38241075272531</v>
@@ -5103,7 +5103,7 @@
         <v>485.7738680828404</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>9.390617586325586e-103</v>
       </c>
       <c r="H182" t="n">
         <v>97.15477361656808</v>
@@ -5129,7 +5129,7 @@
         <v>320.8005565686821</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>3.367213883630497e-67</v>
       </c>
       <c r="H183" t="n">
         <v>64.16011131373641</v>
@@ -5155,7 +5155,7 @@
         <v>259.2439990389673</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>5.705302656708057e-54</v>
       </c>
       <c r="H184" t="n">
         <v>51.84879980779345</v>
@@ -5181,7 +5181,7 @@
         <v>249.7968038893282</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>6.077397059107221e-52</v>
       </c>
       <c r="H185" t="n">
         <v>49.95936077786565</v>
@@ -5207,7 +5207,7 @@
         <v>247.81667785387</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>1.61641734781491e-51</v>
       </c>
       <c r="H186" t="n">
         <v>49.563335570774</v>
@@ -5233,7 +5233,7 @@
         <v>236.9550822197424</v>
       </c>
       <c r="G187" t="n">
-        <v>0</v>
+        <v>3.452727137672648e-49</v>
       </c>
       <c r="H187" t="n">
         <v>47.39101644394848</v>
@@ -5259,7 +5259,7 @@
         <v>242.5578794732686</v>
       </c>
       <c r="G188" t="n">
-        <v>0</v>
+        <v>2.170840227376943e-50</v>
       </c>
       <c r="H188" t="n">
         <v>48.51157589465372</v>
@@ -5285,7 +5285,7 @@
         <v>201.3647191906787</v>
       </c>
       <c r="G189" t="n">
-        <v>0</v>
+        <v>1.45028958131763e-41</v>
       </c>
       <c r="H189" t="n">
         <v>40.27294383813574</v>
@@ -5311,7 +5311,7 @@
         <v>188.6458420033064</v>
       </c>
       <c r="G190" t="n">
-        <v>0</v>
+        <v>7.607703299984843e-39</v>
       </c>
       <c r="H190" t="n">
         <v>37.72916840066129</v>
@@ -5337,7 +5337,7 @@
         <v>160.2622608242954</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>8.702859379921853e-33</v>
       </c>
       <c r="H191" t="n">
         <v>32.05245216485908</v>
@@ -5363,7 +5363,7 @@
         <v>117.4673520186112</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1.079012966765931e-23</v>
       </c>
       <c r="H192" t="n">
         <v>23.49347040372223</v>
@@ -5389,7 +5389,7 @@
         <v>70.61761564261458</v>
       </c>
       <c r="G193" t="n">
-        <v>7.627232179174825e-14</v>
+        <v>7.622261047628e-14</v>
       </c>
       <c r="H193" t="n">
         <v>14.12352312852292</v>
@@ -5415,7 +5415,7 @@
         <v>44.35626235415913</v>
       </c>
       <c r="G194" t="n">
-        <v>1.96083211889686e-08</v>
+        <v>1.960832118900981e-08</v>
       </c>
       <c r="H194" t="n">
         <v>8.871252470831825</v>
@@ -5441,7 +5441,7 @@
         <v>14.46671636727858</v>
       </c>
       <c r="G195" t="n">
-        <v>0.01290139005893254</v>
+        <v>0.01290139005893259</v>
       </c>
       <c r="H195" t="n">
         <v>2.893343273455716</v>
@@ -5467,7 +5467,7 @@
         <v>15.77598731427493</v>
       </c>
       <c r="G196" t="n">
-        <v>0.007513611558628952</v>
+        <v>0.007513611558629003</v>
       </c>
       <c r="H196" t="n">
         <v>3.155197462854986</v>
@@ -5493,7 +5493,7 @@
         <v>9.444662973249502</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09258932773597461</v>
+        <v>0.09258932773597459</v>
       </c>
       <c r="H197" t="n">
         <v>1.8889325946499</v>
@@ -5545,7 +5545,7 @@
         <v>9.185336838290365</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1018961542728453</v>
+        <v>0.1018961542728452</v>
       </c>
       <c r="H199" t="n">
         <v>1.837067367658073</v>
@@ -5597,7 +5597,7 @@
         <v>12.86961022211961</v>
       </c>
       <c r="G201" t="n">
-        <v>0.02463178683248402</v>
+        <v>0.02463178683248404</v>
       </c>
       <c r="H201" t="n">
         <v>2.573922044423923</v>
@@ -5701,7 +5701,7 @@
         <v>27.96090786425879</v>
       </c>
       <c r="G205" t="n">
-        <v>3.70448485886854e-05</v>
+        <v>3.704484858864899e-05</v>
       </c>
       <c r="H205" t="n">
         <v>5.592181572851757</v>
@@ -5727,7 +5727,7 @@
         <v>28.23410269141825</v>
       </c>
       <c r="G206" t="n">
-        <v>3.275705405081375e-05</v>
+        <v>3.275705405078603e-05</v>
       </c>
       <c r="H206" t="n">
         <v>5.64682053828365</v>
@@ -5753,7 +5753,7 @@
         <v>34.8548583321114</v>
       </c>
       <c r="G207" t="n">
-        <v>1.608407119713107e-06</v>
+        <v>1.608407119692714e-06</v>
       </c>
       <c r="H207" t="n">
         <v>6.97097166642228</v>
@@ -5779,7 +5779,7 @@
         <v>29.28227237009535</v>
       </c>
       <c r="G208" t="n">
-        <v>2.041051436174612e-05</v>
+        <v>2.041051436170501e-05</v>
       </c>
       <c r="H208" t="n">
         <v>5.856454474019069</v>
@@ -5805,7 +5805,7 @@
         <v>41.42276638123663</v>
       </c>
       <c r="G209" t="n">
-        <v>7.707189453309837e-08</v>
+        <v>7.707189458774372e-08</v>
       </c>
       <c r="H209" t="n">
         <v>8.284553276247326</v>
@@ -5831,7 +5831,7 @@
         <v>40.50685887176989</v>
       </c>
       <c r="G210" t="n">
-        <v>1.18007559946065e-07</v>
+        <v>1.180075599987866e-07</v>
       </c>
       <c r="H210" t="n">
         <v>8.101371774353977</v>
@@ -5857,7 +5857,7 @@
         <v>39.91060448094438</v>
       </c>
       <c r="G211" t="n">
-        <v>1.556654729562013e-07</v>
+        <v>1.556654729716561e-07</v>
       </c>
       <c r="H211" t="n">
         <v>7.982120896188876</v>
@@ -5883,7 +5883,7 @@
         <v>35.53395522920395</v>
       </c>
       <c r="G212" t="n">
-        <v>1.177089759774042e-06</v>
+        <v>1.177089759761172e-06</v>
       </c>
       <c r="H212" t="n">
         <v>7.106791045840789</v>
@@ -5909,7 +5909,7 @@
         <v>43.76162607679151</v>
       </c>
       <c r="G213" t="n">
-        <v>2.589174730172061e-08</v>
+        <v>2.589174732430631e-08</v>
       </c>
       <c r="H213" t="n">
         <v>8.752325215358301</v>
@@ -5935,7 +5935,7 @@
         <v>31.98313296577884</v>
       </c>
       <c r="G214" t="n">
-        <v>5.987127222550903e-06</v>
+        <v>5.987127222508828e-06</v>
       </c>
       <c r="H214" t="n">
         <v>6.396626593155768</v>
@@ -5961,7 +5961,7 @@
         <v>40.8745639161567</v>
       </c>
       <c r="G215" t="n">
-        <v>9.946464274435129e-08</v>
+        <v>9.946464269959374e-08</v>
       </c>
       <c r="H215" t="n">
         <v>8.17491278323134</v>
@@ -5987,7 +5987,7 @@
         <v>33.93346719481958</v>
       </c>
       <c r="G216" t="n">
-        <v>2.454733612711202e-06</v>
+        <v>2.454733612728181e-06</v>
       </c>
       <c r="H216" t="n">
         <v>6.786693438963917</v>
@@ -6013,7 +6013,7 @@
         <v>19.31793401903405</v>
       </c>
       <c r="G217" t="n">
-        <v>0.001676843976256781</v>
+        <v>0.001676843976256827</v>
       </c>
       <c r="H217" t="n">
         <v>3.86358680380681</v>
@@ -6039,7 +6039,7 @@
         <v>15.47296802673402</v>
       </c>
       <c r="G218" t="n">
-        <v>0.008521508354293883</v>
+        <v>0.008521508354293937</v>
       </c>
       <c r="H218" t="n">
         <v>3.094593605346803</v>
@@ -6065,7 +6065,7 @@
         <v>19.14171892771402</v>
       </c>
       <c r="G219" t="n">
-        <v>0.001808727023960399</v>
+        <v>0.001808727023960405</v>
       </c>
       <c r="H219" t="n">
         <v>3.828343785542804</v>
@@ -6091,7 +6091,7 @@
         <v>13.85982499606759</v>
       </c>
       <c r="G220" t="n">
-        <v>0.01652477599442148</v>
+        <v>0.01652477599442152</v>
       </c>
       <c r="H220" t="n">
         <v>2.771964999213517</v>
@@ -6117,7 +6117,7 @@
         <v>15.4477904720852</v>
       </c>
       <c r="G221" t="n">
-        <v>0.008610932678297045</v>
+        <v>0.008610932678297068</v>
       </c>
       <c r="H221" t="n">
         <v>3.089558094417041</v>
@@ -6143,7 +6143,7 @@
         <v>15.28558948661685</v>
       </c>
       <c r="G222" t="n">
-        <v>0.009209278853294811</v>
+        <v>0.009209278853294841</v>
       </c>
       <c r="H222" t="n">
         <v>3.05711789732337</v>
@@ -6169,7 +6169,7 @@
         <v>15.78446224383947</v>
       </c>
       <c r="G223" t="n">
-        <v>0.007487159308589009</v>
+        <v>0.007487159308588979</v>
       </c>
       <c r="H223" t="n">
         <v>3.156892448767894</v>
@@ -6195,7 +6195,7 @@
         <v>15.62807430524408</v>
       </c>
       <c r="G224" t="n">
-        <v>0.007990194628414216</v>
+        <v>0.00799019462841424</v>
       </c>
       <c r="H224" t="n">
         <v>3.125614861048816</v>
@@ -6221,7 +6221,7 @@
         <v>13.75029240627148</v>
       </c>
       <c r="G225" t="n">
-        <v>0.01727586375551826</v>
+        <v>0.01727586375551828</v>
       </c>
       <c r="H225" t="n">
         <v>2.750058481254295</v>
@@ -6247,7 +6247,7 @@
         <v>12.59652922283204</v>
       </c>
       <c r="G226" t="n">
-        <v>0.02746783511536122</v>
+        <v>0.02746783511536121</v>
       </c>
       <c r="H226" t="n">
         <v>2.519305844566408</v>
@@ -6273,7 +6273,7 @@
         <v>13.10240057504396</v>
       </c>
       <c r="G227" t="n">
-        <v>0.02243782964690089</v>
+        <v>0.02243782964690092</v>
       </c>
       <c r="H227" t="n">
         <v>2.620480115008792</v>
@@ -6299,7 +6299,7 @@
         <v>19.3530423256654</v>
       </c>
       <c r="G228" t="n">
-        <v>0.001651720057091799</v>
+        <v>0.001651720057091749</v>
       </c>
       <c r="H228" t="n">
         <v>3.87060846513308</v>
@@ -6325,7 +6325,7 @@
         <v>24.84388819926492</v>
       </c>
       <c r="G229" t="n">
-        <v>0.0001493441641258197</v>
+        <v>0.0001493441641257918</v>
       </c>
       <c r="H229" t="n">
         <v>4.968777639852983</v>
